--- a/musiclist.xlsx
+++ b/musiclist.xlsx
@@ -20,14 +20,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="934" uniqueCount="932">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1115" uniqueCount="1052">
   <si>
     <t>2 become one</t>
   </si>
   <si>
-    <t>24h – lyly</t>
-  </si>
-  <si>
     <t>A gift of tlistle</t>
   </si>
   <si>
@@ -73,15 +70,9 @@
     <t>Alouette</t>
   </si>
   <si>
-    <t>Âm thầm bên em - (Guitar Solo) (Flute)</t>
-  </si>
-  <si>
     <t>Amour secret</t>
   </si>
   <si>
-    <t>Anh Đã Sai - OnlyC (Official MV)</t>
-  </si>
-  <si>
     <t>Anh đa tình quá</t>
   </si>
   <si>
@@ -100,9 +91,6 @@
     <t>Anh nhớ em</t>
   </si>
   <si>
-    <t>Anh ở đâu ll Minh Hằng [Lyrics + Kara]</t>
-  </si>
-  <si>
     <t>Anh ơi ở lại</t>
   </si>
   <si>
@@ -115,9 +103,6 @@
     <t>Ánh trăng nói hộ lòng tôi</t>
   </si>
   <si>
-    <t>Anh vẫn đợi chờ - Đan trường</t>
-  </si>
-  <si>
     <t>Anyone Of Us (Stupid Mistake)</t>
   </si>
   <si>
@@ -136,21 +121,12 @@
     <t>As long as you love me</t>
   </si>
   <si>
-    <t>Asal takut bahagia - armada</t>
-  </si>
-  <si>
-    <t>Attention - Charlie Puth</t>
-  </si>
-  <si>
     <t>Auld lang syne</t>
   </si>
   <si>
     <t xml:space="preserve">Autumn </t>
   </si>
   <si>
-    <t>Ba kể con nghe - Nguyễn Hải Phong [Lyric - Kara - HD]</t>
-  </si>
-  <si>
     <t>Ba ngọn nến lung linh</t>
   </si>
   <si>
@@ -160,9 +136,6 @@
     <t>Ba tôi xích lô</t>
   </si>
   <si>
-    <t>Baby – glee scat</t>
-  </si>
-  <si>
     <t>Baby girl</t>
   </si>
   <si>
@@ -238,9 +211,6 @@
     <t>Before i sleep</t>
   </si>
   <si>
-    <t>Bella ciao - la casa de papel</t>
-  </si>
-  <si>
     <t>Beo dạt mây trôi</t>
   </si>
   <si>
@@ -262,12 +232,6 @@
     <t>Bối rối</t>
   </si>
   <si>
-    <t>Bonfire Heart [Official Video] James Blunt -</t>
-  </si>
-  <si>
-    <t>Bông hồng thủy tinh - Bức Tường</t>
-  </si>
-  <si>
     <t>Bóng mưa</t>
   </si>
   <si>
@@ -298,9 +262,6 @@
     <t>Buông – bùi anh tuấn</t>
   </si>
   <si>
-    <t>Cá hồi hoang - tầng thượng 102</t>
-  </si>
-  <si>
     <t>Cảm giác khi yêu</t>
   </si>
   <si>
@@ -397,18 +358,12 @@
     <t>Chiếc lá mùa đông</t>
   </si>
   <si>
-    <t xml:space="preserve">Chiều nay không có mưa bay - Trung Quân Idol </t>
-  </si>
-  <si>
     <t>Childhood memory</t>
   </si>
   <si>
     <t>Chirlden of a miracle</t>
   </si>
   <si>
-    <t>Chloe stafler - a jamais</t>
-  </si>
-  <si>
     <t>Cho anh một lần</t>
   </si>
   <si>
@@ -463,9 +418,6 @@
     <t>Chuyện hẹn hò</t>
   </si>
   <si>
-    <t>Chuyển kênh - NGọt</t>
-  </si>
-  <si>
     <t>Chuyện mưa</t>
   </si>
   <si>
@@ -496,9 +448,6 @@
     <t>Con đường hạnh phúc</t>
   </si>
   <si>
-    <t>Con đường màu xanh - by Jack</t>
-  </si>
-  <si>
     <t>Con đường mưa</t>
   </si>
   <si>
@@ -529,9 +478,6 @@
     <t>Crush</t>
   </si>
   <si>
-    <t xml:space="preserve">Crying wolf – enya </t>
-  </si>
-  <si>
     <t>Cứ ngủ say</t>
   </si>
   <si>
@@ -541,18 +487,12 @@
     <t>Cuộc đời phiên bạt của tamao</t>
   </si>
   <si>
-    <t>Đã từng - bùi anh tuấn</t>
-  </si>
-  <si>
     <t>Dacing queen</t>
   </si>
   <si>
     <t>Daha men</t>
   </si>
   <si>
-    <t>Đại Lộ Đón Gió - Thảo Trang</t>
-  </si>
-  <si>
     <t>Đàn gà trong sân</t>
   </si>
   <si>
@@ -565,9 +505,6 @@
     <t>Đắng lòng thanh niên</t>
   </si>
   <si>
-    <t>Dành cho em – hoàng tôn</t>
-  </si>
-  <si>
     <t>Đành thôi người ơi</t>
   </si>
   <si>
@@ -580,18 +517,12 @@
     <t>Dấu hiệu chiến thắng</t>
   </si>
   <si>
-    <t xml:space="preserve">Dấu mưa Version Đàn Bầu QUÁ </t>
-  </si>
-  <si>
     <t>Để gió cuốn đi</t>
   </si>
   <si>
     <t xml:space="preserve">Deepept secrect </t>
   </si>
   <si>
-    <t>Delicate - taylor swith</t>
-  </si>
-  <si>
     <t>Đêm lang thang</t>
   </si>
   <si>
@@ -616,9 +547,6 @@
     <t>Định mệnh</t>
   </si>
   <si>
-    <t>Disaat aku tersakiti - dadali</t>
-  </si>
-  <si>
     <t>Đó là em</t>
   </si>
   <si>
@@ -643,9 +571,6 @@
     <t>Đợi</t>
   </si>
   <si>
-    <t>ĐÔI CHÂN TRẦN - Y MOAN</t>
-  </si>
-  <si>
     <t>Đợi em trở về</t>
   </si>
   <si>
@@ -655,33 +580,21 @@
     <t>Đôi khi muốn</t>
   </si>
   <si>
-    <t>Đôi mắt – Bức tường</t>
-  </si>
-  <si>
     <t>Đợi tháng 8</t>
   </si>
   <si>
-    <t>Đổi thay – Hoài lâm fancam live – swing lounge</t>
-  </si>
-  <si>
     <t>Đôi tim yêu</t>
   </si>
   <si>
     <t>Đơn côi</t>
   </si>
   <si>
-    <t>Don Omar - Danza Kuduro ft. Lucenzo</t>
-  </si>
-  <si>
     <t>Dòng thời gian</t>
   </si>
   <si>
     <t>Dont matter</t>
   </si>
   <si>
-    <t>Down in the hold - bruce springteens</t>
-  </si>
-  <si>
     <t>Dream of lonely man</t>
   </si>
   <si>
@@ -700,9 +613,6 @@
     <t>Đừng lùi bước</t>
   </si>
   <si>
-    <t>Dừng thương – dakka</t>
-  </si>
-  <si>
     <t>Đừng yêu nữa, em mệt rồi</t>
   </si>
   <si>
@@ -712,9 +622,6 @@
     <t>Đường lên đỉnh vinh quang</t>
   </si>
   <si>
-    <t>Đường Một Chiều - Huỳnh Tú ft. Magazine -- Music Video</t>
-  </si>
-  <si>
     <t>Đường xưa</t>
   </si>
   <si>
@@ -724,15 +631,9 @@
     <t>Dust in the wind</t>
   </si>
   <si>
-    <t>Ế - karik</t>
-  </si>
-  <si>
     <t>Edward Maya - Stereo Love Lyrics</t>
   </si>
   <si>
-    <t xml:space="preserve">Eenie Meenie - Sean Kingston, Justin Bieber - </t>
-  </si>
-  <si>
     <t>El condor pasa</t>
   </si>
   <si>
@@ -742,9 +643,6 @@
     <t>Em ah</t>
   </si>
   <si>
-    <t>Em biết - trịnh đình quang</t>
-  </si>
-  <si>
     <t>Em chừa rồi</t>
   </si>
   <si>
@@ -814,9 +712,6 @@
     <t>Faded</t>
   </si>
   <si>
-    <t>Fall Out Boy - I'm Like A Lawyer With The Way I'm Always Trying To Get You Off (Me &amp; You)</t>
-  </si>
-  <si>
     <t>Fiction - nhom beast</t>
   </si>
   <si>
@@ -838,18 +733,12 @@
     <t>For in the morning</t>
   </si>
   <si>
-    <t>Forever - Stratovarius - Fingerstyle Guitar</t>
-  </si>
-  <si>
     <t>Forever and one</t>
   </si>
   <si>
     <t>Forever in love</t>
   </si>
   <si>
-    <t xml:space="preserve">Frendship - Pascal letoublon - </t>
-  </si>
-  <si>
     <t>Frere jacque</t>
   </si>
   <si>
@@ -877,9 +766,6 @@
     <t>Giã từ</t>
   </si>
   <si>
-    <t>Giấc mơ chỉ là giấc mơ - hà anh tuấn</t>
-  </si>
-  <si>
     <t>Giấc mơ ngày xưa</t>
   </si>
   <si>
@@ -889,9 +775,6 @@
     <t>Giấc mơ trưa</t>
   </si>
   <si>
-    <t>Giấc ngủ cô đơn - phương diễm hạnh, tâm đoan</t>
-  </si>
-  <si>
     <t>Giấc ngủ đầu nôi</t>
   </si>
   <si>
@@ -922,9 +805,6 @@
     <t>Giọt sương và chiếc lá</t>
   </si>
   <si>
-    <t>Girls like you - maron5</t>
-  </si>
-  <si>
     <t>Give me a reason</t>
   </si>
   <si>
@@ -937,9 +817,6 @@
     <t>Góc tối</t>
   </si>
   <si>
-    <t>Gọi Mưa - Trung Quân Idol [ Video Lyrics New ]</t>
-  </si>
-  <si>
     <t>Gọi tên em trong đêm</t>
   </si>
   <si>
@@ -985,9 +862,6 @@
     <t>Hạy nói lời yêu</t>
   </si>
   <si>
-    <t xml:space="preserve">Hãy Ra Khỏi Người Đó Đi - Phan Mạnh Quỳnh </t>
-  </si>
-  <si>
     <t>Hãy sống với con tim</t>
   </si>
   <si>
@@ -1006,9 +880,6 @@
     <t>Hello vn</t>
   </si>
   <si>
-    <t>Hero: enrighe</t>
-  </si>
-  <si>
     <t>Hey there delilah</t>
   </si>
   <si>
@@ -1042,9 +913,6 @@
     <t>Hold me for a while</t>
   </si>
   <si>
-    <t>Home - Jimmy nguyễn</t>
-  </si>
-  <si>
     <t>Hòn đá cô đơn</t>
   </si>
   <si>
@@ -1057,9 +925,6 @@
     <t>Hooray hooay</t>
   </si>
   <si>
-    <t>Hot - Avril Lavigne</t>
-  </si>
-  <si>
     <t>Hot and cold</t>
   </si>
   <si>
@@ -1093,9 +958,6 @@
     <t>I love this game</t>
   </si>
   <si>
-    <t>I Love You - Miu Lê [MV]</t>
-  </si>
-  <si>
     <t>I will be your friend</t>
   </si>
   <si>
@@ -1111,9 +973,6 @@
     <t>Im your</t>
   </si>
   <si>
-    <t>I'm yours and Price Tag - Edward Nguyen</t>
-  </si>
-  <si>
     <t>Imagazine</t>
   </si>
   <si>
@@ -1123,9 +982,6 @@
     <t>In Gird</t>
   </si>
   <si>
-    <t>In love – piano</t>
-  </si>
-  <si>
     <t>In my arm</t>
   </si>
   <si>
@@ -1141,24 +997,12 @@
     <t>Jar of heart</t>
   </si>
   <si>
-    <t>Jasmine Flower (KennyG)</t>
-  </si>
-  <si>
     <t>Jespere</t>
   </si>
   <si>
-    <t>Jinchangjang - fertilizer</t>
-  </si>
-  <si>
     <t>Jingle bell</t>
   </si>
   <si>
-    <t>Just The Way You Are - Vicky Nhung (cover)</t>
-  </si>
-  <si>
-    <t>Keep love alive - Modern Talking -+ ++ Lyrics</t>
-  </si>
-  <si>
     <t>Kém duyên rum x nit</t>
   </si>
   <si>
@@ -1168,9 +1012,6 @@
     <t>Khát vọng thượng lưu</t>
   </si>
   <si>
-    <t>Khi cô đơn em nhớ ai - by Jack</t>
-  </si>
-  <si>
     <t>Khi em ra đi</t>
   </si>
   <si>
@@ -1198,9 +1039,6 @@
     <t>Không còn chờ ai</t>
   </si>
   <si>
-    <t>Không còn màu thu</t>
-  </si>
-  <si>
     <t>Không kịp nữa rồi</t>
   </si>
   <si>
@@ -1255,12 +1093,6 @@
     <t>La isla boneta</t>
   </si>
   <si>
-    <t>Lạ lắm - anh tuấn</t>
-  </si>
-  <si>
-    <t>Lạ lùng - thái vũ</t>
-  </si>
-  <si>
     <t>Lá vàng khóc lá xanh</t>
   </si>
   <si>
@@ -1297,12 +1129,6 @@
     <t>Lats chrismas</t>
   </si>
   <si>
-    <t>Le géant de papier - Jean Jacques Laffont</t>
-  </si>
-  <si>
-    <t>Lemon Tree - guitar solo</t>
-  </si>
-  <si>
     <t>Les Amoureux Qui Passent</t>
   </si>
   <si>
@@ -1363,18 +1189,12 @@
     <t>Lời nói dối chân thật</t>
   </si>
   <si>
-    <t xml:space="preserve">Lỗi ở yêu thương - thanh duy </t>
-  </si>
-  <si>
     <t>Lời thú tội ngọt ngào</t>
   </si>
   <si>
     <t>Lonely</t>
   </si>
   <si>
-    <t>LOST - MIN from ST.</t>
-  </si>
-  <si>
     <t>Lost without you</t>
   </si>
   <si>
@@ -1414,9 +1234,6 @@
     <t>Lúc mới yêu</t>
   </si>
   <si>
-    <t>Lucky – jacson mraz</t>
-  </si>
-  <si>
     <t>Lucky twice</t>
   </si>
   <si>
@@ -1438,21 +1255,9 @@
     <t>Making love out of nothing at all</t>
   </si>
   <si>
-    <t>Mâm côi - linh cáo</t>
-  </si>
-  <si>
-    <t>Maria – kim ah yoong</t>
-  </si>
-  <si>
     <t>Marry boy child</t>
   </si>
   <si>
-    <t>May it be - enya</t>
-  </si>
-  <si>
-    <t>May thay không sinh ở thời cổ đại - Tăng Chiêu Vĩ</t>
-  </si>
-  <si>
     <t>Mẹ yêu</t>
   </si>
   <si>
@@ -1462,12 +1267,6 @@
     <t>Million rose</t>
   </si>
   <si>
-    <t xml:space="preserve">Mình là gì của nhau - Lou Hoàng </t>
-  </si>
-  <si>
-    <t>Mình Yêu Nhau Đi - LEG</t>
-  </si>
-  <si>
     <t>Mmamama</t>
   </si>
   <si>
@@ -1480,9 +1279,6 @@
     <t>Môi xinh</t>
   </si>
   <si>
-    <t>Mong manh tình về - Vũ ngọc huyền</t>
-  </si>
-  <si>
     <t>Moon light in shadow</t>
   </si>
   <si>
@@ -1495,12 +1291,6 @@
     <t>Một ngày mới</t>
   </si>
   <si>
-    <t>Một nhà - Vicky Nhung Nguyễn (Cover)</t>
-  </si>
-  <si>
-    <t>Một thoáng hương tình - hồng ngọc</t>
-  </si>
-  <si>
     <t>Một thời bình yên</t>
   </si>
   <si>
@@ -1537,9 +1327,6 @@
     <t>Mùa yêu đầu</t>
   </si>
   <si>
-    <t xml:space="preserve">Munajat Cinta - The Rock - Munajat Cinta </t>
-  </si>
-  <si>
     <t>My boy – angela phương trinh</t>
   </si>
   <si>
@@ -1552,9 +1339,6 @@
     <t>Myahee</t>
   </si>
   <si>
-    <t>Não cá vàng  - Only-c</t>
-  </si>
-  <si>
     <t>Này em - lê thiện hiếu</t>
   </si>
   <si>
@@ -1567,9 +1351,6 @@
     <t>Nếu</t>
   </si>
   <si>
-    <t>Nếu anh đi - mỹ tâm</t>
-  </si>
-  <si>
     <t>Nếu điều đó xảy ra</t>
   </si>
   <si>
@@ -1582,9 +1363,6 @@
     <t>Nếu như anh đến</t>
   </si>
   <si>
-    <t>Nếu như ngày đó - lệ quyên</t>
-  </si>
-  <si>
     <t>Never had a dream come true</t>
   </si>
   <si>
@@ -2809,13 +2587,595 @@
     <t>Aku Suka Dia</t>
   </si>
   <si>
-    <t>All good thing ( | sissel)</t>
-  </si>
-  <si>
-    <t>All good thing (nelly futado |)</t>
-  </si>
-  <si>
     <t>Although I don’t believe in love</t>
+  </si>
+  <si>
+    <t>Lyly</t>
+  </si>
+  <si>
+    <t>24h</t>
+  </si>
+  <si>
+    <t>Brian Adam</t>
+  </si>
+  <si>
+    <t>Fiona Fung</t>
+  </si>
+  <si>
+    <t>Thế Phương VBK</t>
+  </si>
+  <si>
+    <t>Michel Teló</t>
+  </si>
+  <si>
+    <t>Zivilia</t>
+  </si>
+  <si>
+    <t>Ainan Tasneem</t>
+  </si>
+  <si>
+    <t>Sissel</t>
+  </si>
+  <si>
+    <t>Flute</t>
+  </si>
+  <si>
+    <t>Nelly Futado</t>
+  </si>
+  <si>
+    <t>All good thing</t>
+  </si>
+  <si>
+    <t>Guitar solo</t>
+  </si>
+  <si>
+    <t>Âm thầm bên em</t>
+  </si>
+  <si>
+    <t>OnlyC</t>
+  </si>
+  <si>
+    <t>Anh Đã Sai</t>
+  </si>
+  <si>
+    <t>Maya</t>
+  </si>
+  <si>
+    <t>Minh Hằng</t>
+  </si>
+  <si>
+    <t>Anh ở đâu</t>
+  </si>
+  <si>
+    <t>Tuấn Hưng</t>
+  </si>
+  <si>
+    <t>Đan Trường</t>
+  </si>
+  <si>
+    <t>Anh vẫn đợi chờ</t>
+  </si>
+  <si>
+    <t>Gareth Gate</t>
+  </si>
+  <si>
+    <t>Trường Vũ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Armada </t>
+  </si>
+  <si>
+    <t>Charlie Puth</t>
+  </si>
+  <si>
+    <t>Asal takut bahagia</t>
+  </si>
+  <si>
+    <t>Attention</t>
+  </si>
+  <si>
+    <t>Piano</t>
+  </si>
+  <si>
+    <t>Nguyễn Hải Phong</t>
+  </si>
+  <si>
+    <t>Ba kể con nghe</t>
+  </si>
+  <si>
+    <t>glee scat</t>
+  </si>
+  <si>
+    <t>Baby</t>
+  </si>
+  <si>
+    <t>Tô Thanh Phương</t>
+  </si>
+  <si>
+    <t>Enrique Iglesias</t>
+  </si>
+  <si>
+    <t>Hồ Quang Hiếu</t>
+  </si>
+  <si>
+    <t>Khắc Hiếu</t>
+  </si>
+  <si>
+    <t>Bella ciao</t>
+  </si>
+  <si>
+    <t>la casa de papel</t>
+  </si>
+  <si>
+    <t>Thùy chi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">James Blunt </t>
+  </si>
+  <si>
+    <t>Bonfire Heart</t>
+  </si>
+  <si>
+    <t>Bức Tường</t>
+  </si>
+  <si>
+    <t>Bông hồng thủy tinh</t>
+  </si>
+  <si>
+    <t>Mothern Talking</t>
+  </si>
+  <si>
+    <t>Karik</t>
+  </si>
+  <si>
+    <t>Tầng thượng 102</t>
+  </si>
+  <si>
+    <t>Cá hồi hoang</t>
+  </si>
+  <si>
+    <t>Kim Tiểu Phượng</t>
+  </si>
+  <si>
+    <t>Bằng Kiều</t>
+  </si>
+  <si>
+    <t>Khánh Phương</t>
+  </si>
+  <si>
+    <t>Chiều nay không có mưa bay</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Trung Quân Idol </t>
+  </si>
+  <si>
+    <t>A Jamais</t>
+  </si>
+  <si>
+    <t>Chloe stafler</t>
+  </si>
+  <si>
+    <t>Uyên Linh</t>
+  </si>
+  <si>
+    <t>Lương Bích Hữu</t>
+  </si>
+  <si>
+    <t>Ngọt</t>
+  </si>
+  <si>
+    <t>Chuyển kênh</t>
+  </si>
+  <si>
+    <t>Mạnh Quỳnh</t>
+  </si>
+  <si>
+    <t>Jack Việt Nam</t>
+  </si>
+  <si>
+    <t>Con đường màu xanh</t>
+  </si>
+  <si>
+    <t>Quang Dũng</t>
+  </si>
+  <si>
+    <t>Bảo Thy</t>
+  </si>
+  <si>
+    <t>Bruno Mars</t>
+  </si>
+  <si>
+    <t>Britney Spear</t>
+  </si>
+  <si>
+    <t>Enya</t>
+  </si>
+  <si>
+    <t>Crying wolf</t>
+  </si>
+  <si>
+    <t>Bùi Anh Tuấn</t>
+  </si>
+  <si>
+    <t>Thảo Trang</t>
+  </si>
+  <si>
+    <t>Đã từng</t>
+  </si>
+  <si>
+    <t>Đại Lộ Đón Gió</t>
+  </si>
+  <si>
+    <t>Hoàng Tôn</t>
+  </si>
+  <si>
+    <t>Dành cho em</t>
+  </si>
+  <si>
+    <t>Đàm Vĩnh Hưng</t>
+  </si>
+  <si>
+    <t>Quang Lê</t>
+  </si>
+  <si>
+    <t>Đàn Bầu</t>
+  </si>
+  <si>
+    <t>Dấu mưa</t>
+  </si>
+  <si>
+    <t>Taylor Swith</t>
+  </si>
+  <si>
+    <t>Me</t>
+  </si>
+  <si>
+    <t>Delicate</t>
+  </si>
+  <si>
+    <t>Dadali</t>
+  </si>
+  <si>
+    <t>Disaat aku tersakiti</t>
+  </si>
+  <si>
+    <t>Trần Trung Đức</t>
+  </si>
+  <si>
+    <t>Y MOAN</t>
+  </si>
+  <si>
+    <t>ĐÔI CHÂN TRẦN</t>
+  </si>
+  <si>
+    <t>Đôi mắt</t>
+  </si>
+  <si>
+    <t>Bức tường</t>
+  </si>
+  <si>
+    <t>Hoài lâm fancam live – swing lounge</t>
+  </si>
+  <si>
+    <t>Đổi thay</t>
+  </si>
+  <si>
+    <t>Don Omar</t>
+  </si>
+  <si>
+    <t>Danza Kuduro ft. Lucenzo</t>
+  </si>
+  <si>
+    <t>Down in the hold</t>
+  </si>
+  <si>
+    <t>bruce springteens</t>
+  </si>
+  <si>
+    <t>Dakka</t>
+  </si>
+  <si>
+    <t>Dừng thương</t>
+  </si>
+  <si>
+    <t>Mai Hoa</t>
+  </si>
+  <si>
+    <t>Huỳnh Tú ft. Magazine</t>
+  </si>
+  <si>
+    <t>Đường Một Chiều</t>
+  </si>
+  <si>
+    <t>Trịnh Đình Quang</t>
+  </si>
+  <si>
+    <t>I'm Like A Lawyer With The Way I'm Always Trying To Get You Off (Me &amp; You)</t>
+  </si>
+  <si>
+    <t>Ế</t>
+  </si>
+  <si>
+    <t>Eenie Meenie</t>
+  </si>
+  <si>
+    <t>Sean Kingston, Justin Bieber</t>
+  </si>
+  <si>
+    <t>Quách beam</t>
+  </si>
+  <si>
+    <t>Em biết</t>
+  </si>
+  <si>
+    <t>Phương Thanh</t>
+  </si>
+  <si>
+    <t>Lê Cát Trọng Lý</t>
+  </si>
+  <si>
+    <t>Fall Out Boy</t>
+  </si>
+  <si>
+    <t>Forever</t>
+  </si>
+  <si>
+    <t>Stratovarius - Fingerstyle Guitar</t>
+  </si>
+  <si>
+    <t>Frendship</t>
+  </si>
+  <si>
+    <t>Pascal letoublon</t>
+  </si>
+  <si>
+    <t>Ngọc Sơn</t>
+  </si>
+  <si>
+    <t>Secret garden</t>
+  </si>
+  <si>
+    <t>Phương Uyên</t>
+  </si>
+  <si>
+    <t>Hà Anh Tuấn</t>
+  </si>
+  <si>
+    <t>Giấc mơ chỉ là giấc mơ</t>
+  </si>
+  <si>
+    <t>Kasim Hoàng Vũ</t>
+  </si>
+  <si>
+    <t>Miu Lê</t>
+  </si>
+  <si>
+    <t>Phương Diễm Hạnh - Tâm Đoan</t>
+  </si>
+  <si>
+    <t>Giấc ngủ cô đơn</t>
+  </si>
+  <si>
+    <t>Phi Nhung</t>
+  </si>
+  <si>
+    <t>Phan Mạnh Quỳnh</t>
+  </si>
+  <si>
+    <t>Chế Linh</t>
+  </si>
+  <si>
+    <t>Maron 5</t>
+  </si>
+  <si>
+    <t>Girls like you</t>
+  </si>
+  <si>
+    <t>Pink</t>
+  </si>
+  <si>
+    <t>Gọi Mưa</t>
+  </si>
+  <si>
+    <t>The Men</t>
+  </si>
+  <si>
+    <t>Jams Blunt</t>
+  </si>
+  <si>
+    <t>Hãy Ra Khỏi Người Đó Đi</t>
+  </si>
+  <si>
+    <t>Duy Mạnh</t>
+  </si>
+  <si>
+    <t>Hero</t>
+  </si>
+  <si>
+    <t>Jimmy Nguyễn</t>
+  </si>
+  <si>
+    <t>Thanh Thảo</t>
+  </si>
+  <si>
+    <t>Avril Lavigne</t>
+  </si>
+  <si>
+    <t>Edward Nguyen</t>
+  </si>
+  <si>
+    <t>Home</t>
+  </si>
+  <si>
+    <t>Hot</t>
+  </si>
+  <si>
+    <t>The Eagle</t>
+  </si>
+  <si>
+    <t>Tăng Nhật Tuệ</t>
+  </si>
+  <si>
+    <t>In love</t>
+  </si>
+  <si>
+    <t>I Love You</t>
+  </si>
+  <si>
+    <t>Jackson Mraz</t>
+  </si>
+  <si>
+    <t>I'm yours and Price Tag</t>
+  </si>
+  <si>
+    <t>Fertilizer</t>
+  </si>
+  <si>
+    <t>Jasmine Flower</t>
+  </si>
+  <si>
+    <t>Saxophone Kenny G</t>
+  </si>
+  <si>
+    <t>Jinchangjang</t>
+  </si>
+  <si>
+    <t>Vicky Nhung</t>
+  </si>
+  <si>
+    <t>Just The Way You Are</t>
+  </si>
+  <si>
+    <t>Keep love alive</t>
+  </si>
+  <si>
+    <t>Khi cô đơn em nhớ ai</t>
+  </si>
+  <si>
+    <t>Không còn mùa thu</t>
+  </si>
+  <si>
+    <t>Thủy Tiên</t>
+  </si>
+  <si>
+    <t>Tạ Quang Thắng</t>
+  </si>
+  <si>
+    <t>Anh Tuấn</t>
+  </si>
+  <si>
+    <t>Thái Vũ</t>
+  </si>
+  <si>
+    <t>Jean Jacques Laffont</t>
+  </si>
+  <si>
+    <t>Lạ lắm</t>
+  </si>
+  <si>
+    <t>Lạ lùng</t>
+  </si>
+  <si>
+    <t>France</t>
+  </si>
+  <si>
+    <t>Le géant de papier</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lemon Tree </t>
+  </si>
+  <si>
+    <t>Thanh Duy</t>
+  </si>
+  <si>
+    <t>Lỗi ở yêu thương</t>
+  </si>
+  <si>
+    <t>LOST</t>
+  </si>
+  <si>
+    <t>MIN from ST.39</t>
+  </si>
+  <si>
+    <t>Lucky</t>
+  </si>
+  <si>
+    <t>Air Supply</t>
+  </si>
+  <si>
+    <t>Linh Cáo</t>
+  </si>
+  <si>
+    <t>Tăng Chiêu Vĩ</t>
+  </si>
+  <si>
+    <t>Vũ Ngọc Huyền</t>
+  </si>
+  <si>
+    <t>Mâm côi</t>
+  </si>
+  <si>
+    <t>Maria</t>
+  </si>
+  <si>
+    <t>Kim Ah Yoong</t>
+  </si>
+  <si>
+    <t>May it b</t>
+  </si>
+  <si>
+    <t>May thay không sinh ở thời cổ đại</t>
+  </si>
+  <si>
+    <t>Mình là gì của nhau</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lou Hoàng </t>
+  </si>
+  <si>
+    <t>Mình Yêu Nhau Đi</t>
+  </si>
+  <si>
+    <t>Vanh LEG</t>
+  </si>
+  <si>
+    <t>Mong manh tình về</t>
+  </si>
+  <si>
+    <t>Thịnh Suy</t>
+  </si>
+  <si>
+    <t>Một nhà</t>
+  </si>
+  <si>
+    <t>Hồng Ngọc</t>
+  </si>
+  <si>
+    <t>Munajat Cinta</t>
+  </si>
+  <si>
+    <t>Mỹ Tâm</t>
+  </si>
+  <si>
+    <t>Một thoáng hương tình</t>
+  </si>
+  <si>
+    <t>Đinh Mạnh Ninh</t>
+  </si>
+  <si>
+    <t>The Rock</t>
+  </si>
+  <si>
+    <t>Não cá vàng</t>
+  </si>
+  <si>
+    <t>Lệ Quyên</t>
+  </si>
+  <si>
+    <t>Nếu anh đi</t>
+  </si>
+  <si>
+    <t>Nếu như ngày đó</t>
   </si>
 </sst>
 </file>
@@ -2858,11 +3218,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3144,4625 +3507,5173 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B921"/>
+  <dimension ref="A1:D923"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+    <sheetView tabSelected="1" topLeftCell="A528" workbookViewId="0">
+      <selection activeCell="B544" sqref="B544"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="9.140625" style="1"/>
     <col min="2" max="2" width="109.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="9.140625" style="1"/>
+    <col min="3" max="3" width="19.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
-        <v>917</v>
+        <v>843</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>916</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
+        <v>842</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C2" s="1" t="s">
+        <v>852</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B3" s="2" t="s">
+        <v>857</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>856</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B4" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B4" s="2" t="s">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B5" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B5" s="2" t="s">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B6" s="2" t="s">
+        <v>848</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>858</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B7" s="2" t="s">
+        <v>848</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>859</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B8" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B6" s="2" t="s">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B9" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B10" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B11" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B12" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B13" s="2" t="s">
+        <v>849</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>860</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B14" s="2" t="s">
+        <v>849</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B15" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B16" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B17" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>861</v>
+      </c>
+    </row>
+    <row r="18" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B18" s="2" t="s">
+        <v>853</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>862</v>
+      </c>
+    </row>
+    <row r="19" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B19" s="2" t="s">
+        <v>854</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="20" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B20" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="21" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B21" s="2" t="s">
+        <v>867</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>864</v>
+      </c>
+    </row>
+    <row r="22" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B22" s="2" t="s">
+        <v>867</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>866</v>
+      </c>
+    </row>
+    <row r="23" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B23" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="24" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B24" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="25" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B25" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="26" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B26" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="27" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B27" s="2" t="s">
+        <v>855</v>
+      </c>
+    </row>
+    <row r="28" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B28" s="2" t="s">
+        <v>869</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>868</v>
+      </c>
+    </row>
+    <row r="29" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B29" s="2" t="s">
+        <v>869</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>865</v>
+      </c>
+    </row>
+    <row r="30" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B30" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="31" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B31" s="2" t="s">
+        <v>871</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>870</v>
+      </c>
+    </row>
+    <row r="32" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B32" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>872</v>
+      </c>
+    </row>
+    <row r="33" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B33" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="34" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B34" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="35" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B35" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="36" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B36" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="37" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B37" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="38" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B38" s="2" t="s">
+        <v>874</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>873</v>
+      </c>
+    </row>
+    <row r="39" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B39" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="40" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B40" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="41" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B41" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>875</v>
+      </c>
+    </row>
+    <row r="42" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B42" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="43" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B43" s="2" t="s">
+        <v>877</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>876</v>
+      </c>
+    </row>
+    <row r="44" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B44" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="45" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B45" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>879</v>
+      </c>
+    </row>
+    <row r="46" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B46" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="47" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B47" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="48" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B48" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="49" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B49" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="50" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B50" s="2" t="s">
+        <v>882</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>880</v>
+      </c>
+    </row>
+    <row r="51" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B51" s="2" t="s">
+        <v>883</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>881</v>
+      </c>
+    </row>
+    <row r="52" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B52" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="53" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B53" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>884</v>
+      </c>
+    </row>
+    <row r="54" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B54" s="2" t="s">
+        <v>886</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>885</v>
+      </c>
+    </row>
+    <row r="55" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B55" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="56" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B56" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="57" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B57" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="58" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B58" s="2" t="s">
+        <v>888</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>887</v>
+      </c>
+    </row>
+    <row r="59" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B59" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="60" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B60" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="61" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B61" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="62" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B62" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>889</v>
+      </c>
+    </row>
+    <row r="63" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B63" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="64" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B64" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="65" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B65" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="66" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B66" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="67" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B67" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="68" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B68" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>890</v>
+      </c>
+    </row>
+    <row r="69" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B69" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>891</v>
+      </c>
+    </row>
+    <row r="70" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B70" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="71" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B71" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="72" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B72" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="73" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B73" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="74" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B74" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="75" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B75" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="76" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B76" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="77" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B77" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="78" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B78" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C78" s="1" t="s">
+        <v>892</v>
+      </c>
+    </row>
+    <row r="79" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B79" s="2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="80" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B80" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="81" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B81" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="82" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B82" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="83" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B83" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="84" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B84" s="2" t="s">
+        <v>893</v>
+      </c>
+      <c r="C84" s="1" t="s">
+        <v>894</v>
+      </c>
+    </row>
+    <row r="85" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B85" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="86" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B86" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C86" s="1" t="s">
+        <v>895</v>
+      </c>
+    </row>
+    <row r="87" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B87" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="88" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B88" s="2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="89" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B89" s="2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="90" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B90" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="91" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B91" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="92" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B92" s="2" t="s">
+        <v>897</v>
+      </c>
+      <c r="C92" s="1" t="s">
+        <v>896</v>
+      </c>
+    </row>
+    <row r="93" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B93" s="2" t="s">
+        <v>899</v>
+      </c>
+      <c r="C93" s="1" t="s">
+        <v>898</v>
+      </c>
+    </row>
+    <row r="94" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B94" s="2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="95" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B95" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="96" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B96" s="2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="97" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B97" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C97" s="1" t="s">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="98" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B98" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="99" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B99" s="2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="100" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B100" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C100" s="1" t="s">
+        <v>901</v>
+      </c>
+    </row>
+    <row r="101" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B101" s="2" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="102" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B102" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C102" s="1" t="s">
+        <v>879</v>
+      </c>
+    </row>
+    <row r="103" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B103" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="104" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B104" s="2" t="s">
+        <v>902</v>
+      </c>
+      <c r="C104" s="1" t="s">
+        <v>903</v>
+      </c>
+    </row>
+    <row r="105" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B105" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C105" s="1" t="s">
+        <v>904</v>
+      </c>
+    </row>
+    <row r="106" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B106" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="107" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B107" s="2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="108" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B108" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C108" s="1" t="s">
+        <v>868</v>
+      </c>
+    </row>
+    <row r="109" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B109" s="2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="110" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B110" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="111" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B111" s="2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="112" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B112" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="113" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B113" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C113" s="1" t="s">
+        <v>896</v>
+      </c>
+    </row>
+    <row r="114" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B114" s="2" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="115" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B115" s="2" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="116" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B116" s="2" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="117" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B117" s="2" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="118" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B118" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C118" s="1" t="s">
+        <v>901</v>
+      </c>
+    </row>
+    <row r="119" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B119" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C119" s="1" t="s">
+        <v>868</v>
+      </c>
+    </row>
+    <row r="120" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B120" s="2" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="121" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B121" s="2" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="122" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B122" s="2" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="123" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B123" s="2" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="124" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B124" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="C124" s="1" t="s">
+        <v>901</v>
+      </c>
+    </row>
+    <row r="125" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B125" s="2" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="126" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B126" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="127" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B127" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="C127" s="1" t="s">
+        <v>891</v>
+      </c>
+    </row>
+    <row r="128" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B128" s="2" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="129" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B129" s="2" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="130" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B130" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="C130" s="1" t="s">
+        <v>905</v>
+      </c>
+    </row>
+    <row r="131" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B131" s="2" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="132" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B132" s="2" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="133" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B133" s="2" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="134" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B134" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="C134" s="1" t="s">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="135" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B135" s="2" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="136" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B136" s="2" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="137" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B137" s="2" t="s">
+        <v>907</v>
+      </c>
+      <c r="C137" s="1" t="s">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="138" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B138" s="2" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="139" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B139" s="2" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="140" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B140" s="2" t="s">
+        <v>910</v>
+      </c>
+      <c r="C140" s="1" t="s">
+        <v>909</v>
+      </c>
+    </row>
+    <row r="141" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B141" s="2" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="142" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B142" s="2" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="143" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B143" s="2" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="144" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B144" s="2" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="145" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B145" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="146" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B146" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="C146" s="1" t="s">
+        <v>911</v>
+      </c>
+    </row>
+    <row r="147" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B147" s="2" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="148" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B148" s="2" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="149" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B149" s="2" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="150" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B150" s="2" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="151" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B151" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="C151" s="1" t="s">
+        <v>879</v>
+      </c>
+    </row>
+    <row r="152" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B152" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="C152" s="1" t="s">
+        <v>912</v>
+      </c>
+    </row>
+    <row r="153" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B153" s="2" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="154" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B154" s="2" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="155" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B155" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="C155" s="1" t="s">
+        <v>879</v>
+      </c>
+    </row>
+    <row r="156" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B156" s="2" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="157" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B157" s="2" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="158" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B158" s="2" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="159" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B159" s="2" t="s">
+        <v>914</v>
+      </c>
+      <c r="C159" s="1" t="s">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="160" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B160" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="C160" s="1" t="s">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="161" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B161" s="2" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="162" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B162" s="2" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="163" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B163" s="2" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="164" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B164" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="C164" s="1" t="s">
+        <v>915</v>
+      </c>
+    </row>
+    <row r="165" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B165" s="2" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="166" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B166" s="2" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="167" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B167" s="2" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="168" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B168" s="2" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="169" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B169" s="2" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="170" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B170" s="2" t="s">
+        <v>917</v>
+      </c>
+      <c r="C170" s="1" t="s">
+        <v>916</v>
+      </c>
+    </row>
+    <row r="171" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B171" s="2" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="172" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B172" s="2" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="173" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B173" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="C173" s="1" t="s">
+        <v>918</v>
+      </c>
+    </row>
+    <row r="174" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B174" s="2" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="175" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B175" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="C175" s="1" t="s">
+        <v>919</v>
+      </c>
+    </row>
+    <row r="176" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B176" s="2" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="177" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B177" s="2" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="178" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B178" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="C178" s="1" t="s">
+        <v>920</v>
+      </c>
+    </row>
+    <row r="179" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B179" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="C179" s="1" t="s">
+        <v>921</v>
+      </c>
+    </row>
+    <row r="180" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B180" s="2" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="181" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B181" s="2" t="s">
+        <v>923</v>
+      </c>
+      <c r="C181" s="1" t="s">
         <v>922</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B7" s="2" t="s">
+    <row r="182" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B182" s="2" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="183" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B183" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="C183" s="1" t="s">
+        <v>890</v>
+      </c>
+    </row>
+    <row r="184" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B184" s="2" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="185" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B185" s="2" t="s">
+        <v>926</v>
+      </c>
+      <c r="C185" s="1" t="s">
+        <v>924</v>
+      </c>
+    </row>
+    <row r="186" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B186" s="2" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="187" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B187" s="2" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="188" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B188" s="2" t="s">
+        <v>927</v>
+      </c>
+      <c r="C188" s="1" t="s">
+        <v>925</v>
+      </c>
+    </row>
+    <row r="189" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B189" s="2" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="190" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B190" s="2" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="191" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B191" s="2" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="192" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B192" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="C192" s="1" t="s">
+        <v>870</v>
+      </c>
+    </row>
+    <row r="193" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B193" s="2" t="s">
+        <v>929</v>
+      </c>
+      <c r="C193" s="1" t="s">
+        <v>928</v>
+      </c>
+    </row>
+    <row r="194" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B194" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="C194" s="1" t="s">
+        <v>930</v>
+      </c>
+    </row>
+    <row r="195" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B195" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="C195" s="1" t="s">
+        <v>931</v>
+      </c>
+    </row>
+    <row r="196" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B196" s="2" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="197" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B197" s="2" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="198" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B198" s="2" t="s">
+        <v>933</v>
+      </c>
+      <c r="C198" s="1" t="s">
+        <v>932</v>
+      </c>
+    </row>
+    <row r="199" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B199" s="2" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="200" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B200" s="2" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="201" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B201" s="2" t="s">
+        <v>936</v>
+      </c>
+      <c r="C201" s="1" t="s">
+        <v>934</v>
+      </c>
+    </row>
+    <row r="202" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B202" s="2" t="s">
+        <v>935</v>
+      </c>
+      <c r="C202" s="1" t="s">
+        <v>934</v>
+      </c>
+    </row>
+    <row r="203" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B203" s="2" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="204" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B204" s="2" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="205" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B205" s="2" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="206" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B206" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="C206" s="1" t="s">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="207" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B207" s="2" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="208" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B208" s="2" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="209" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B209" s="2" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="210" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B210" s="2" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="211" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B211" s="2" t="s">
+        <v>938</v>
+      </c>
+      <c r="C211" s="1" t="s">
+        <v>937</v>
+      </c>
+    </row>
+    <row r="212" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B212" s="2" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="213" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B213" s="2" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="214" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B214" s="2" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="215" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B215" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="C215" s="1" t="s">
+        <v>879</v>
+      </c>
+    </row>
+    <row r="216" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B216" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="C216" s="1" t="s">
+        <v>939</v>
+      </c>
+    </row>
+    <row r="217" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B217" s="2" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="218" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B218" s="2" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="219" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B219" s="2" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="220" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B220" s="2" t="s">
+        <v>941</v>
+      </c>
+      <c r="C220" s="1" t="s">
+        <v>940</v>
+      </c>
+    </row>
+    <row r="221" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B221" s="2" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="222" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B222" s="2" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="223" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B223" s="2" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="224" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B224" s="2" t="s">
+        <v>942</v>
+      </c>
+      <c r="C224" s="1" t="s">
+        <v>943</v>
+      </c>
+    </row>
+    <row r="225" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B225" s="2" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="226" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B226" s="2" t="s">
+        <v>945</v>
+      </c>
+      <c r="C226" s="1" t="s">
+        <v>944</v>
+      </c>
+    </row>
+    <row r="227" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B227" s="2" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="228" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B228" s="2" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="229" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B229" s="2" t="s">
+        <v>946</v>
+      </c>
+      <c r="C229" s="1" t="s">
+        <v>947</v>
+      </c>
+    </row>
+    <row r="230" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B230" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="C230" s="1" t="s">
+        <v>885</v>
+      </c>
+    </row>
+    <row r="231" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B231" s="2" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="232" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B232" s="2" t="s">
+        <v>948</v>
+      </c>
+      <c r="C232" s="1" t="s">
+        <v>949</v>
+      </c>
+    </row>
+    <row r="233" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B233" s="2" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="234" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B234" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="C234" s="1" t="s">
+        <v>915</v>
+      </c>
+    </row>
+    <row r="235" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B235" s="2" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="236" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B236" s="2" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="237" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B237" s="2" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="238" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B238" s="2" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="239" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B239" s="2" t="s">
+        <v>951</v>
+      </c>
+      <c r="C239" s="1" t="s">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="240" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B240" s="2" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="241" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B241" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="C241" s="1" t="s">
+        <v>952</v>
+      </c>
+    </row>
+    <row r="242" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B242" s="2" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="243" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B243" s="2" t="s">
+        <v>954</v>
+      </c>
+      <c r="C243" s="1" t="s">
+        <v>953</v>
+      </c>
+    </row>
+    <row r="244" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B244" s="2" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="245" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B245" s="2" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="246" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B246" s="2" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="247" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B247" s="2" t="s">
+        <v>957</v>
+      </c>
+      <c r="C247" s="1" t="s">
+        <v>901</v>
+      </c>
+    </row>
+    <row r="248" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B248" s="2" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="249" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B249" s="2" t="s">
+        <v>958</v>
+      </c>
+      <c r="C249" s="1" t="s">
+        <v>959</v>
+      </c>
+    </row>
+    <row r="250" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B250" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="C250" s="1" t="s">
+        <v>890</v>
+      </c>
+    </row>
+    <row r="251" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B251" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="C251" s="1" t="s">
+        <v>890</v>
+      </c>
+    </row>
+    <row r="252" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B252" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="C252" s="1" t="s">
+        <v>960</v>
+      </c>
+    </row>
+    <row r="253" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B253" s="2" t="s">
+        <v>961</v>
+      </c>
+      <c r="C253" s="1" t="s">
+        <v>955</v>
+      </c>
+    </row>
+    <row r="254" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B254" s="2" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="255" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B255" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="C255" s="1" t="s">
+        <v>891</v>
+      </c>
+    </row>
+    <row r="256" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B256" s="2" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="257" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B257" s="2" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="258" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B258" s="2" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="259" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B259" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="C259" s="1" t="s">
+        <v>928</v>
+      </c>
+    </row>
+    <row r="260" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B260" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="C260" s="1" t="s">
+        <v>901</v>
+      </c>
+    </row>
+    <row r="261" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B261" s="2" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="262" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B262" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="C262" s="1" t="s">
+        <v>962</v>
+      </c>
+    </row>
+    <row r="263" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B263" s="2" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="264" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B264" s="2" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="265" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B265" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="C265" s="1" t="s">
+        <v>963</v>
+      </c>
+    </row>
+    <row r="266" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B266" s="2" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="267" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B267" s="2" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="268" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B268" s="2" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="269" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B269" s="2" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="270" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B270" s="2" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="271" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B271" s="2" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="272" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B272" s="2" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="273" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B273" s="2" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="274" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B274" s="2" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="275" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B275" s="2" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="276" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B276" s="2" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="277" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B277" s="2" t="s">
+        <v>956</v>
+      </c>
+      <c r="C277" s="1" t="s">
+        <v>964</v>
+      </c>
+    </row>
+    <row r="278" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B278" s="2" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="279" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B279" s="2" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="280" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B280" s="2" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="281" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B281" s="2" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="282" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B282" s="2" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="283" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B283" s="2" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="284" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B284" s="2" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="285" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B285" s="2" t="s">
+        <v>965</v>
+      </c>
+      <c r="C285" s="1" t="s">
+        <v>966</v>
+      </c>
+    </row>
+    <row r="286" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B286" s="2" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="287" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B287" s="2" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="288" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B288" s="2" t="s">
+        <v>967</v>
+      </c>
+      <c r="C288" s="1" t="s">
+        <v>968</v>
+      </c>
+    </row>
+    <row r="289" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B289" s="2" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="290" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B290" s="2" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="291" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B291" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="C291" s="1" t="s">
+        <v>969</v>
+      </c>
+    </row>
+    <row r="292" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B292" s="2" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="293" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B293" s="2" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="294" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B294" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="C294" s="1" t="s">
+        <v>970</v>
+      </c>
+    </row>
+    <row r="295" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B295" s="2" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="296" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B296" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="C296" s="1" t="s">
+        <v>971</v>
+      </c>
+    </row>
+    <row r="297" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B297" s="2" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="298" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B298" s="2" t="s">
+        <v>973</v>
+      </c>
+      <c r="C298" s="1" t="s">
+        <v>972</v>
+      </c>
+    </row>
+    <row r="299" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B299" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="C299" s="1" t="s">
+        <v>974</v>
+      </c>
+    </row>
+    <row r="300" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B300" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="C300" s="1" t="s">
+        <v>975</v>
+      </c>
+    </row>
+    <row r="301" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B301" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="C301" s="1" t="s">
+        <v>895</v>
+      </c>
+    </row>
+    <row r="302" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B302" s="2" t="s">
+        <v>977</v>
+      </c>
+      <c r="C302" s="1" t="s">
+        <v>976</v>
+      </c>
+    </row>
+    <row r="303" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B303" s="2" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="304" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B304" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="C304" s="1" t="s">
+        <v>978</v>
+      </c>
+    </row>
+    <row r="305" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B305" s="2" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="306" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B306" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="C306" s="1" t="s">
+        <v>930</v>
+      </c>
+    </row>
+    <row r="307" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B307" s="2" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="308" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B308" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="C308" s="1" t="s">
+        <v>979</v>
+      </c>
+    </row>
+    <row r="309" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B309" s="2" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="310" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B310" s="2" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="311" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B311" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="C311" s="1" t="s">
+        <v>980</v>
+      </c>
+    </row>
+    <row r="312" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B312" s="2" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="313" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B313" s="2" t="s">
+        <v>982</v>
+      </c>
+      <c r="C313" s="1" t="s">
+        <v>981</v>
+      </c>
+    </row>
+    <row r="314" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B314" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="C314" s="1" t="s">
+        <v>983</v>
+      </c>
+    </row>
+    <row r="315" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B315" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="C315" s="1" t="s">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="316" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B316" s="2" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="317" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B317" s="2" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="318" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B318" s="2" t="s">
+        <v>984</v>
+      </c>
+      <c r="C318" s="1" t="s">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="319" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B319" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="C319" s="1" t="s">
+        <v>985</v>
+      </c>
+    </row>
+    <row r="320" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B320" s="2" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="321" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B321" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="C321" s="1" t="s">
+        <v>986</v>
+      </c>
+    </row>
+    <row r="322" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B322" s="2" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="323" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B323" s="2" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="324" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B324" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="C324" s="1" t="s">
+        <v>868</v>
+      </c>
+    </row>
+    <row r="325" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B325" s="2" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="326" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B326" s="2" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="327" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B327" s="2" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="328" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B328" s="2" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="329" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B329" s="2" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="330" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B330" s="2" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="331" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B331" s="2" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="332" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B332" s="2" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="333" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B333" s="2" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="334" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B334" s="2" t="s">
+        <v>987</v>
+      </c>
+      <c r="C334" s="1" t="s">
+        <v>979</v>
+      </c>
+    </row>
+    <row r="335" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B335" s="2" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="336" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B336" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="C336" s="1" t="s">
+        <v>988</v>
+      </c>
+    </row>
+    <row r="337" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B337" s="2" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="338" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B338" s="2" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="339" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B339" s="2" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="340" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B340" s="2" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="341" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B341" s="2" t="s">
+        <v>989</v>
+      </c>
+      <c r="C341" s="1" t="s">
+        <v>890</v>
+      </c>
+    </row>
+    <row r="342" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B342" s="2" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="343" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B343" s="2" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="344" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B344" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="C344" s="1" t="s">
+        <v>943</v>
+      </c>
+    </row>
+    <row r="345" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B345" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="C345" s="1" t="s">
+        <v>990</v>
+      </c>
+    </row>
+    <row r="346" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B346" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="C346" s="1" t="s">
+        <v>991</v>
+      </c>
+    </row>
+    <row r="347" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B347" s="2" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="348" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B348" s="2" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="349" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B349" s="2" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="350" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B350" s="2" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="351" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B351" s="2" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="352" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B352" s="2" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="353" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B353" s="2" t="s">
+        <v>994</v>
+      </c>
+      <c r="C353" s="1" t="s">
+        <v>990</v>
+      </c>
+    </row>
+    <row r="354" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B354" s="2" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="355" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B355" s="2" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="356" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B356" s="2" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="357" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B357" s="2" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="358" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B358" s="2" t="s">
+        <v>995</v>
+      </c>
+      <c r="C358" s="1" t="s">
+        <v>992</v>
+      </c>
+    </row>
+    <row r="359" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B359" s="2" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="360" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B360" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="C360" s="1" t="s">
+        <v>996</v>
+      </c>
+    </row>
+    <row r="361" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B361" s="2" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="362" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B362" s="2" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="363" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B363" s="2" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="364" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B364" s="2" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="365" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B365" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="C365" s="1" t="s">
+        <v>997</v>
+      </c>
+    </row>
+    <row r="366" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B366" s="2" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="367" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B367" s="2" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="368" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B368" s="2" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="369" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B369" s="2" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="370" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B370" s="2" t="s">
+        <v>999</v>
+      </c>
+      <c r="C370" s="1" t="s">
+        <v>975</v>
+      </c>
+    </row>
+    <row r="371" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B371" s="2" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="372" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B372" s="2" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="373" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B373" s="2" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="374" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B374" s="2" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="375" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B375" s="2" t="s">
+        <v>316</v>
+      </c>
+      <c r="C375" s="1" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="376" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B376" s="2" t="s">
+        <v>1001</v>
+      </c>
+      <c r="C376" s="1" t="s">
+        <v>993</v>
+      </c>
+    </row>
+    <row r="377" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B377" s="2" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="378" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B378" s="2" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="379" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B379" s="2" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="380" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B380" s="2" t="s">
+        <v>998</v>
+      </c>
+      <c r="C380" s="1" t="s">
+        <v>884</v>
+      </c>
+    </row>
+    <row r="381" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B381" s="2" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="382" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B382" s="2" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="383" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B383" s="2" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="384" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B384" s="2" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="385" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B385" s="2" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="386" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B386" s="2" t="s">
+        <v>1003</v>
+      </c>
+      <c r="C386" s="1" t="s">
+        <v>1004</v>
+      </c>
+    </row>
+    <row r="387" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B387" s="2" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="388" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B388" s="2" t="s">
+        <v>1002</v>
+      </c>
+      <c r="C388" s="1" t="s">
+        <v>1005</v>
+      </c>
+    </row>
+    <row r="389" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B389" s="2" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="390" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B390" s="2" t="s">
+        <v>1007</v>
+      </c>
+      <c r="C390" s="1" t="s">
+        <v>1006</v>
+      </c>
+    </row>
+    <row r="391" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B391" s="2" t="s">
+        <v>1008</v>
+      </c>
+      <c r="C391" s="1" t="s">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="392" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B392" s="2" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="393" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B393" s="2" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="394" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B394" s="2" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="395" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B395" s="2" t="s">
+        <v>1009</v>
+      </c>
+      <c r="C395" s="1" t="s">
+        <v>916</v>
+      </c>
+    </row>
+    <row r="396" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B396" s="2" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="397" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B397" s="2" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="398" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B398" s="2" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="399" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B399" s="2" t="s">
+        <v>333</v>
+      </c>
+      <c r="C399" s="1" t="s">
+        <v>979</v>
+      </c>
+    </row>
+    <row r="400" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B400" s="2" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="401" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B401" s="2" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="402" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B402" s="2" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="403" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B403" s="2" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="404" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B404" s="2" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="405" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B405" s="2" t="s">
+        <v>1010</v>
+      </c>
+    </row>
+    <row r="406" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B406" s="2" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="407" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B407" s="2" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="408" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B408" s="2" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="409" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B409" s="2" t="s">
+        <v>342</v>
+      </c>
+      <c r="C409" s="1" t="s">
+        <v>901</v>
+      </c>
+    </row>
+    <row r="410" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B410" s="2" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="411" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B411" s="2" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="412" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B412" s="2" t="s">
+        <v>345</v>
+      </c>
+      <c r="C412" s="1" t="s">
+        <v>1011</v>
+      </c>
+    </row>
+    <row r="413" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B413" s="2" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="414" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B414" s="2" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="415" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B415" s="2" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="416" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B416" s="2" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="417" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B417" s="2" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="418" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B418" s="2" t="s">
+        <v>351</v>
+      </c>
+      <c r="C418" s="1" t="s">
+        <v>884</v>
+      </c>
+    </row>
+    <row r="419" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B419" s="2" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="420" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B420" s="2" t="s">
+        <v>353</v>
+      </c>
+      <c r="C420" s="1" t="s">
+        <v>1012</v>
+      </c>
+    </row>
+    <row r="421" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B421" s="2" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="422" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B422" s="2" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="423" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B423" s="2" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="424" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B424" s="2" t="s">
+        <v>1016</v>
+      </c>
+      <c r="C424" s="1" t="s">
+        <v>1013</v>
+      </c>
+    </row>
+    <row r="425" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B425" s="2" t="s">
+        <v>1017</v>
+      </c>
+      <c r="C425" s="1" t="s">
+        <v>1014</v>
+      </c>
+    </row>
+    <row r="426" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B426" s="2" t="s">
+        <v>357</v>
+      </c>
+      <c r="C426" s="1" t="s">
+        <v>879</v>
+      </c>
+    </row>
+    <row r="427" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B427" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="C427" s="1" t="s">
+        <v>901</v>
+      </c>
+    </row>
+    <row r="428" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B428" s="2" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="429" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B429" s="2" t="s">
+        <v>360</v>
+      </c>
+      <c r="C429" s="1" t="s">
+        <v>939</v>
+      </c>
+    </row>
+    <row r="430" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B430" s="2" t="s">
+        <v>361</v>
+      </c>
+      <c r="D430" s="1" t="s">
+        <v>1018</v>
+      </c>
+    </row>
+    <row r="431" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B431" s="2" t="s">
+        <v>362</v>
+      </c>
+      <c r="D431" s="1" t="s">
+        <v>1018</v>
+      </c>
+    </row>
+    <row r="432" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B432" s="2" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="433" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B433" s="2" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="434" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B434" s="2" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="435" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B435" s="2" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="436" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B436" s="2" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="437" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B437" s="2" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="438" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B438" s="2" t="s">
+        <v>1019</v>
+      </c>
+      <c r="C438" s="1" t="s">
+        <v>1015</v>
+      </c>
+      <c r="D438" s="1" t="s">
+        <v>1018</v>
+      </c>
+    </row>
+    <row r="439" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B439" s="2" t="s">
+        <v>1020</v>
+      </c>
+      <c r="C439" s="1" t="s">
+        <v>868</v>
+      </c>
+    </row>
+    <row r="440" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B440" s="2" t="s">
+        <v>369</v>
+      </c>
+      <c r="D440" s="1" t="s">
+        <v>1018</v>
+      </c>
+    </row>
+    <row r="441" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B441" s="2" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="442" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B442" s="2" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="443" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B443" s="2" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="444" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B444" s="2" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="445" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B445" s="2" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="446" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B446" s="2" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="447" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B447" s="2" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="448" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B448" s="2" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="449" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B449" s="2" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="450" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B450" s="2" t="s">
+        <v>379</v>
+      </c>
+      <c r="C450" s="1" t="s">
+        <v>905</v>
+      </c>
+    </row>
+    <row r="451" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B451" s="2" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="452" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B452" s="2" t="s">
+        <v>381</v>
+      </c>
+      <c r="C452" s="1" t="s">
+        <v>890</v>
+      </c>
+    </row>
+    <row r="453" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B453" s="2" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="454" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B454" s="2" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="455" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B455" s="2" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="456" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B456" s="2" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="457" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B457" s="2" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="458" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B458" s="2" t="s">
+        <v>387</v>
+      </c>
+      <c r="C458" s="1" t="s">
+        <v>930</v>
+      </c>
+    </row>
+    <row r="459" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B459" s="2" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="460" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B460" s="2" t="s">
+        <v>1022</v>
+      </c>
+      <c r="C460" s="1" t="s">
+        <v>1021</v>
+      </c>
+    </row>
+    <row r="461" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B461" s="2" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="462" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B462" s="2" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="463" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B463" s="2" t="s">
+        <v>1023</v>
+      </c>
+      <c r="C463" s="1" t="s">
+        <v>1024</v>
+      </c>
+    </row>
+    <row r="464" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B464" s="2" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="465" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B465" s="2" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="466" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B466" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="C466" s="1" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="467" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B467" s="2" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="468" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B468" s="2" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="469" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B469" s="2" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="470" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B470" s="2" t="s">
+        <v>397</v>
+      </c>
+      <c r="C470" s="1" t="s">
+        <v>934</v>
+      </c>
+    </row>
+    <row r="471" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B471" s="2" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="472" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B472" s="2" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="473" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B473" s="2" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="474" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B474" s="2" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="475" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B475" s="2" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="476" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B476" s="2" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="477" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B477" s="2" t="s">
+        <v>1025</v>
+      </c>
+      <c r="C477" s="1" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="478" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B478" s="2" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="479" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B479" s="2" t="s">
+        <v>405</v>
+      </c>
+      <c r="C479" s="1" t="s">
+        <v>901</v>
+      </c>
+    </row>
+    <row r="480" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B480" s="2" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="481" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B481" s="2" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="482" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B482" s="2" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="483" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B483" s="2" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="484" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B484" s="2" t="s">
+        <v>410</v>
+      </c>
+      <c r="C484" s="1" t="s">
+        <v>1026</v>
+      </c>
+    </row>
+    <row r="485" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B485" s="2" t="s">
+        <v>1030</v>
+      </c>
+      <c r="C485" s="1" t="s">
+        <v>1027</v>
+      </c>
+    </row>
+    <row r="486" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B486" s="2" t="s">
+        <v>1031</v>
+      </c>
+      <c r="C486" s="1" t="s">
+        <v>1032</v>
+      </c>
+    </row>
+    <row r="487" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B487" s="2" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="488" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B488" s="2" t="s">
+        <v>1033</v>
+      </c>
+      <c r="C488" s="1" t="s">
         <v>922</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B8" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B9" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B10" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B11" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B12" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B13" s="2" t="s">
-        <v>923</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B14" s="2" t="s">
-        <v>923</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B15" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B16" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B17" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B18" s="2" t="s">
-        <v>927</v>
-      </c>
-    </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B19" s="2" t="s">
-        <v>928</v>
-      </c>
-    </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B20" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="21" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B21" s="2" t="s">
-        <v>929</v>
-      </c>
-    </row>
-    <row r="22" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B22" s="2" t="s">
-        <v>930</v>
-      </c>
-    </row>
-    <row r="23" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B23" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="24" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B24" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="25" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B25" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="26" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B26" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="27" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B27" s="2" t="s">
-        <v>931</v>
-      </c>
-    </row>
-    <row r="28" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B28" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="29" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B29" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="30" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B30" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="31" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B31" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="32" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B32" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="33" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B33" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="34" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B34" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="35" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B35" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="36" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B36" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="37" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B37" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="38" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B38" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="39" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B39" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="40" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B40" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="41" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B41" s="2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="42" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B42" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="43" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B43" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="44" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B44" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="45" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B45" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="46" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B46" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="47" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B47" s="2" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="48" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B48" s="2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="49" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B49" s="2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="50" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B50" s="2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="51" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B51" s="2" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="52" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B52" s="2" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="53" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B53" s="2" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="54" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B54" s="2" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="55" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B55" s="2" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="56" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B56" s="2" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="57" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B57" s="2" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="58" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B58" s="2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="59" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B59" s="2" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="60" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B60" s="2" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="61" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B61" s="2" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="62" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B62" s="2" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="63" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B63" s="2" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="64" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B64" s="2" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="65" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B65" s="2" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="66" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B66" s="2" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="67" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B67" s="2" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="68" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B68" s="2" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="69" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B69" s="2" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="70" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B70" s="2" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="71" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B71" s="2" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="72" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B72" s="2" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="73" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B73" s="2" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="74" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B74" s="2" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="75" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B75" s="2" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="76" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B76" s="2" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="77" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B77" s="2" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="78" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B78" s="2" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="79" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B79" s="2" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="80" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B80" s="2" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="81" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B81" s="2" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="82" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B82" s="2" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="83" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B83" s="2" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="84" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B84" s="2" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="85" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B85" s="2" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="86" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B86" s="2" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="87" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B87" s="2" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="88" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B88" s="2" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="89" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B89" s="2" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="90" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B90" s="2" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="91" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B91" s="2" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="92" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B92" s="2" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="93" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B93" s="2" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="94" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B94" s="2" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="95" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B95" s="2" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="96" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B96" s="2" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="97" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B97" s="2" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="98" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B98" s="2" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="99" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B99" s="2" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="100" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B100" s="2" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="101" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B101" s="2" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="102" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B102" s="2" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="103" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B103" s="2" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="104" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B104" s="2" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="105" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B105" s="2" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="106" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B106" s="2" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="107" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B107" s="2" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="108" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B108" s="2" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="109" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B109" s="2" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="110" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B110" s="2" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="111" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B111" s="2" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="112" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B112" s="2" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="113" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B113" s="2" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="114" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B114" s="2" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="115" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B115" s="2" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="116" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B116" s="2" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="117" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B117" s="2" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="118" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B118" s="2" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="119" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B119" s="2" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="120" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B120" s="2" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="121" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B121" s="2" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="122" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B122" s="2" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="123" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B123" s="2" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="124" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B124" s="2" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="125" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B125" s="2" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="126" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B126" s="2" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="127" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B127" s="2" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="128" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B128" s="2" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="129" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B129" s="2" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="130" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B130" s="2" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="131" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B131" s="2" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="132" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B132" s="2" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="133" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B133" s="2" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="134" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B134" s="2" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="135" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B135" s="2" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="136" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B136" s="2" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="137" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B137" s="2" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="138" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B138" s="2" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="139" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B139" s="2" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="140" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B140" s="2" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="141" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B141" s="2" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="142" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B142" s="2" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="143" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B143" s="2" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="144" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B144" s="2" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="145" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B145" s="2" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="146" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B146" s="2" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="147" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B147" s="2" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="148" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B148" s="2" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="149" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B149" s="2" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="150" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B150" s="2" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="151" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B151" s="2" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="152" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B152" s="2" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="153" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B153" s="2" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="154" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B154" s="2" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="155" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B155" s="2" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="156" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B156" s="2" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="157" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B157" s="2" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="158" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B158" s="2" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="159" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B159" s="2" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="160" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B160" s="2" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="161" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B161" s="2" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="162" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B162" s="2" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="163" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B163" s="2" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="164" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B164" s="2" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="165" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B165" s="2" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="166" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B166" s="2" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="167" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B167" s="2" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="168" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B168" s="2" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="169" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B169" s="2" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="170" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B170" s="2" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="171" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B171" s="2" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="172" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B172" s="2" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="173" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B173" s="2" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="174" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B174" s="2" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="175" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B175" s="2" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="176" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B176" s="2" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="177" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B177" s="2" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="178" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B178" s="2" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="179" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B179" s="2" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="180" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B180" s="2" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="181" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B181" s="2" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="182" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B182" s="2" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="183" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B183" s="2" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="184" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B184" s="2" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="185" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B185" s="2" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="186" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B186" s="2" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="187" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B187" s="2" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="188" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B188" s="2" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="189" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B189" s="2" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="190" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B190" s="2" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="191" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B191" s="2" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="192" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B192" s="2" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="193" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B193" s="2" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="194" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B194" s="2" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="195" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B195" s="2" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="196" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B196" s="2" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="197" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B197" s="2" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="198" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B198" s="2" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="199" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B199" s="2" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="200" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B200" s="2" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="201" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B201" s="2" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="202" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B202" s="2" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="203" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B203" s="2" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="204" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B204" s="2" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="205" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B205" s="2" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="206" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B206" s="2" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="207" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B207" s="2" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="208" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B208" s="2" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="209" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B209" s="2" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="210" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B210" s="2" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="211" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B211" s="2" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="212" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B212" s="2" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="213" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B213" s="2" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="214" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B214" s="2" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="215" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B215" s="2" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="216" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B216" s="2" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="217" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B217" s="2" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="218" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B218" s="2" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="219" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B219" s="2" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="220" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B220" s="2" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="221" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B221" s="2" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="222" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B222" s="2" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="223" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B223" s="2" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="224" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B224" s="2" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="225" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B225" s="2" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="226" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B226" s="2" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="227" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B227" s="2" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="228" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B228" s="2" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="229" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B229" s="2" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="230" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B230" s="2" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="231" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B231" s="2" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="232" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B232" s="2" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="233" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B233" s="2" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="234" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B234" s="2" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="235" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B235" s="2" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="236" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B236" s="2" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="237" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B237" s="2" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="238" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B238" s="2" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="239" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B239" s="2" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="240" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B240" s="2" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="241" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B241" s="2" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="242" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B242" s="2" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="243" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B243" s="2" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="244" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B244" s="2" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="245" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B245" s="2" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="246" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B246" s="2" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="247" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B247" s="2" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="248" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B248" s="2" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="249" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B249" s="2" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="250" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B250" s="2" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="251" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B251" s="2" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="252" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B252" s="2" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="253" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B253" s="2" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="254" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B254" s="2" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="255" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B255" s="2" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="256" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B256" s="2" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="257" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B257" s="2" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="258" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B258" s="2" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="259" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B259" s="2" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="260" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B260" s="2" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="261" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B261" s="2" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="262" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B262" s="2" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="263" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B263" s="2" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="264" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B264" s="2" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="265" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B265" s="2" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="266" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B266" s="2" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="267" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B267" s="2" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="268" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B268" s="2" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="269" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B269" s="2" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="270" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B270" s="2" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="271" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B271" s="2" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="272" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B272" s="2" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="273" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B273" s="2" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="274" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B274" s="2" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="275" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B275" s="2" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="276" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B276" s="2" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="277" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B277" s="2" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="278" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B278" s="2" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="279" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B279" s="2" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="280" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B280" s="2" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="281" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B281" s="2" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="282" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B282" s="2" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="283" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B283" s="2" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="284" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B284" s="2" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="285" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B285" s="2" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="286" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B286" s="2" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="287" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B287" s="2" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="288" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B288" s="2" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="289" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B289" s="2" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="290" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B290" s="2" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="291" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B291" s="2" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="292" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B292" s="2" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="293" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B293" s="2" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="294" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B294" s="2" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="295" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B295" s="2" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="296" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B296" s="2" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="297" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B297" s="2" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="298" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B298" s="2" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="299" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B299" s="2" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="300" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B300" s="2" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="301" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B301" s="2" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="302" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B302" s="2" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="303" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B303" s="2" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="304" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B304" s="2" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="305" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B305" s="2" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="306" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B306" s="2" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="307" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B307" s="2" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="308" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B308" s="2" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="309" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B309" s="2" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="310" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B310" s="2" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="311" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B311" s="2" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="312" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B312" s="2" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="313" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B313" s="2" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="314" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B314" s="2" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="315" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B315" s="2" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="316" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B316" s="2" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="317" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B317" s="2" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="318" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B318" s="2" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="319" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B319" s="2" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="320" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B320" s="2" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="321" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B321" s="2" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="322" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B322" s="2" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="323" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B323" s="2" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="324" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B324" s="2" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="325" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B325" s="2" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="326" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B326" s="2" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="327" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B327" s="2" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="328" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B328" s="2" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="329" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B329" s="2" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="330" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B330" s="2" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="331" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B331" s="2" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="332" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B332" s="2" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="333" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B333" s="2" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="334" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B334" s="2" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="335" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B335" s="2" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="336" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B336" s="2" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="337" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B337" s="2" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="338" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B338" s="2" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="339" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B339" s="2" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="340" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B340" s="2" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="341" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B341" s="2" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="342" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B342" s="2" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="343" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B343" s="2" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="344" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B344" s="2" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="345" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B345" s="2" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="346" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B346" s="2" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="347" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B347" s="2" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="348" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B348" s="2" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="349" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B349" s="2" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="350" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B350" s="2" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="351" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B351" s="2" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="352" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B352" s="2" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="353" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B353" s="2" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="354" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B354" s="2" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="355" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B355" s="2" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="356" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B356" s="2" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="357" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B357" s="2" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="358" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B358" s="2" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="359" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B359" s="2" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="360" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B360" s="2" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="361" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B361" s="2" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="362" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B362" s="2" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="363" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B363" s="2" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="364" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B364" s="2" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="365" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B365" s="2" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="366" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B366" s="2" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="367" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B367" s="2" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="368" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B368" s="2" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="369" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B369" s="2" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="370" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B370" s="2" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="371" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B371" s="2" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="372" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B372" s="2" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="373" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B373" s="2" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="374" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B374" s="2" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="375" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B375" s="2" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="376" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B376" s="2" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="377" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B377" s="2" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="378" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B378" s="2" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="379" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B379" s="2" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="380" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B380" s="2" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="381" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B381" s="2" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="382" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B382" s="2" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="383" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B383" s="2" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="384" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B384" s="2" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="385" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B385" s="2" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="386" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B386" s="2" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="387" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B387" s="2" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="388" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B388" s="2" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="389" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B389" s="2" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="390" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B390" s="2" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="391" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B391" s="2" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="392" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B392" s="2" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="393" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B393" s="2" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="394" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B394" s="2" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="395" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B395" s="2" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="396" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B396" s="2" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="397" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B397" s="2" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="398" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B398" s="2" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="399" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B399" s="2" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="400" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B400" s="2" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="401" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B401" s="2" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="402" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B402" s="2" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="403" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B403" s="2" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="404" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B404" s="2" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="405" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B405" s="2" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="406" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B406" s="2" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="407" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B407" s="2" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="408" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B408" s="2" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="409" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B409" s="2" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="410" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B410" s="2" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="411" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B411" s="2" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="412" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B412" s="2" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="413" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B413" s="2" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="414" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B414" s="2" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="415" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B415" s="2" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="416" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B416" s="2" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="417" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B417" s="2" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="418" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B418" s="2" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="419" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B419" s="2" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="420" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B420" s="2" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="421" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B421" s="2" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="422" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B422" s="2" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="423" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B423" s="2" t="s">
+    <row r="489" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B489" s="2" t="s">
+        <v>1034</v>
+      </c>
+      <c r="C489" s="1" t="s">
+        <v>1028</v>
+      </c>
+    </row>
+    <row r="490" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B490" s="2" t="s">
         <v>412</v>
       </c>
     </row>
-    <row r="424" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B424" s="2" t="s">
+    <row r="491" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B491" s="2" t="s">
         <v>413</v>
       </c>
     </row>
-    <row r="425" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B425" s="2" t="s">
+    <row r="492" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B492" s="2" t="s">
         <v>414</v>
       </c>
     </row>
-    <row r="426" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B426" s="2" t="s">
+    <row r="493" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B493" s="2" t="s">
+        <v>1035</v>
+      </c>
+      <c r="C493" s="1" t="s">
+        <v>1036</v>
+      </c>
+    </row>
+    <row r="494" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B494" s="2" t="s">
+        <v>1037</v>
+      </c>
+      <c r="C494" s="1" t="s">
+        <v>1038</v>
+      </c>
+    </row>
+    <row r="495" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B495" s="2" t="s">
         <v>415</v>
       </c>
     </row>
-    <row r="427" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B427" s="2" t="s">
+    <row r="496" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B496" s="2" t="s">
         <v>416</v>
       </c>
     </row>
-    <row r="428" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B428" s="2" t="s">
+    <row r="497" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B497" s="2" t="s">
         <v>417</v>
       </c>
     </row>
-    <row r="429" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B429" s="2" t="s">
+    <row r="498" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B498" s="2" t="s">
         <v>418</v>
       </c>
     </row>
-    <row r="430" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B430" s="2" t="s">
+    <row r="499" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B499" s="2" t="s">
+        <v>1039</v>
+      </c>
+      <c r="C499" s="1" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="500" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B500" s="2" t="s">
         <v>419</v>
       </c>
     </row>
-    <row r="431" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B431" s="2" t="s">
+    <row r="501" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B501" s="2" t="s">
         <v>420</v>
       </c>
-    </row>
-    <row r="432" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B432" s="2" t="s">
+      <c r="C501" s="1" t="s">
+        <v>1040</v>
+      </c>
+    </row>
+    <row r="502" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B502" s="2" t="s">
         <v>421</v>
       </c>
     </row>
-    <row r="433" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B433" s="2" t="s">
+    <row r="503" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B503" s="2" t="s">
         <v>422</v>
       </c>
     </row>
-    <row r="434" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B434" s="2" t="s">
+    <row r="504" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B504" s="2" t="s">
+        <v>1041</v>
+      </c>
+      <c r="C504" s="1" t="s">
+        <v>1006</v>
+      </c>
+    </row>
+    <row r="505" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B505" s="2" t="s">
+        <v>1045</v>
+      </c>
+      <c r="C505" s="1" t="s">
+        <v>1042</v>
+      </c>
+    </row>
+    <row r="506" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B506" s="2" t="s">
         <v>423</v>
       </c>
     </row>
-    <row r="435" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B435" s="2" t="s">
+    <row r="507" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B507" s="2" t="s">
         <v>424</v>
       </c>
     </row>
-    <row r="436" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B436" s="2" t="s">
+    <row r="508" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B508" s="2" t="s">
         <v>425</v>
       </c>
     </row>
-    <row r="437" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B437" s="2" t="s">
+    <row r="509" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B509" s="2" t="s">
         <v>426</v>
       </c>
     </row>
-    <row r="438" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B438" s="2" t="s">
+    <row r="510" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B510" s="2" t="s">
         <v>427</v>
       </c>
     </row>
-    <row r="439" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B439" s="2" t="s">
+    <row r="511" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B511" s="2" t="s">
         <v>428</v>
       </c>
     </row>
-    <row r="440" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B440" s="2" t="s">
+    <row r="512" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B512" s="2" t="s">
         <v>429</v>
       </c>
     </row>
-    <row r="441" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B441" s="2" t="s">
+    <row r="513" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B513" s="2" t="s">
         <v>430</v>
       </c>
     </row>
-    <row r="442" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B442" s="2" t="s">
+    <row r="514" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B514" s="2" t="s">
         <v>431</v>
       </c>
     </row>
-    <row r="443" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B443" s="2" t="s">
+    <row r="515" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B515" s="2" t="s">
         <v>432</v>
       </c>
     </row>
-    <row r="444" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B444" s="2" t="s">
+    <row r="516" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B516" s="2" t="s">
         <v>433</v>
       </c>
     </row>
-    <row r="445" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B445" s="2" t="s">
+    <row r="517" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B517" s="2" t="s">
         <v>434</v>
       </c>
-    </row>
-    <row r="446" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B446" s="2" t="s">
+      <c r="C517" s="1" t="s">
+        <v>1046</v>
+      </c>
+    </row>
+    <row r="518" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B518" s="2" t="s">
+        <v>1043</v>
+      </c>
+      <c r="C518" s="1" t="s">
+        <v>1047</v>
+      </c>
+    </row>
+    <row r="519" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B519" s="2" t="s">
         <v>435</v>
       </c>
     </row>
-    <row r="447" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B447" s="2" t="s">
+    <row r="520" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B520" s="2" t="s">
         <v>436</v>
       </c>
     </row>
-    <row r="448" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B448" s="2" t="s">
+    <row r="521" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B521" s="2" t="s">
         <v>437</v>
       </c>
     </row>
-    <row r="449" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B449" s="2" t="s">
+    <row r="522" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B522" s="2" t="s">
         <v>438</v>
       </c>
     </row>
-    <row r="450" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B450" s="2" t="s">
+    <row r="523" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B523" s="2" t="s">
+        <v>1048</v>
+      </c>
+      <c r="C523" s="1" t="s">
+        <v>870</v>
+      </c>
+    </row>
+    <row r="524" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B524" s="2" t="s">
         <v>439</v>
       </c>
     </row>
-    <row r="451" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B451" s="2" t="s">
+    <row r="525" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B525" s="2" t="s">
         <v>440</v>
       </c>
     </row>
-    <row r="452" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B452" s="2" t="s">
+    <row r="526" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B526" s="2" t="s">
         <v>441</v>
       </c>
     </row>
-    <row r="453" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B453" s="2" t="s">
+    <row r="527" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B527" s="2" t="s">
         <v>442</v>
       </c>
     </row>
-    <row r="454" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B454" s="2" t="s">
+    <row r="528" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B528" s="2" t="s">
+        <v>1050</v>
+      </c>
+      <c r="C528" s="1" t="s">
+        <v>1044</v>
+      </c>
+    </row>
+    <row r="529" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B529" s="2" t="s">
         <v>443</v>
       </c>
     </row>
-    <row r="455" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B455" s="2" t="s">
+    <row r="530" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B530" s="2" t="s">
         <v>444</v>
       </c>
     </row>
-    <row r="456" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B456" s="2" t="s">
+    <row r="531" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B531" s="2" t="s">
         <v>445</v>
       </c>
     </row>
-    <row r="457" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B457" s="2" t="s">
+    <row r="532" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B532" s="2" t="s">
         <v>446</v>
       </c>
     </row>
-    <row r="458" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B458" s="2" t="s">
+    <row r="533" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B533" s="2" t="s">
+        <v>1051</v>
+      </c>
+      <c r="C533" s="1" t="s">
+        <v>1049</v>
+      </c>
+    </row>
+    <row r="534" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B534" s="2" t="s">
         <v>447</v>
       </c>
     </row>
-    <row r="459" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B459" s="2" t="s">
+    <row r="535" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B535" s="2" t="s">
         <v>448</v>
       </c>
     </row>
-    <row r="460" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B460" s="2" t="s">
+    <row r="536" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B536" s="2" t="s">
         <v>449</v>
       </c>
     </row>
-    <row r="461" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B461" s="2" t="s">
+    <row r="537" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B537" s="2" t="s">
         <v>450</v>
       </c>
     </row>
-    <row r="462" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B462" s="2" t="s">
+    <row r="538" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B538" s="2" t="s">
         <v>451</v>
       </c>
     </row>
-    <row r="463" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B463" s="2" t="s">
+    <row r="539" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B539" s="2" t="s">
         <v>452</v>
       </c>
     </row>
-    <row r="464" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B464" s="2" t="s">
+    <row r="540" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B540" s="2" t="s">
         <v>453</v>
       </c>
     </row>
-    <row r="465" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B465" s="2" t="s">
+    <row r="541" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B541" s="2" t="s">
         <v>454</v>
       </c>
     </row>
-    <row r="466" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B466" s="2" t="s">
+    <row r="542" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B542" s="2" t="s">
         <v>455</v>
       </c>
     </row>
-    <row r="467" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B467" s="2" t="s">
+    <row r="543" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B543" s="2" t="s">
         <v>456</v>
       </c>
     </row>
-    <row r="468" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B468" s="2" t="s">
+    <row r="544" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B544" s="2" t="s">
         <v>457</v>
-      </c>
-    </row>
-    <row r="469" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B469" s="2" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="470" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B470" s="2" t="s">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="471" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B471" s="2" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="472" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B472" s="2" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="473" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B473" s="2" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="474" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B474" s="2" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="475" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B475" s="2" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="476" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B476" s="2" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="477" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B477" s="2" t="s">
-        <v>466</v>
-      </c>
-    </row>
-    <row r="478" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B478" s="2" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="479" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B479" s="2" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="480" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B480" s="2" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="481" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B481" s="2" t="s">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="482" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B482" s="2" t="s">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="483" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B483" s="2" t="s">
-        <v>472</v>
-      </c>
-    </row>
-    <row r="484" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B484" s="2" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="485" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B485" s="2" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="486" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B486" s="2" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="487" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B487" s="2" t="s">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="488" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B488" s="2" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="489" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B489" s="2" t="s">
-        <v>478</v>
-      </c>
-    </row>
-    <row r="490" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B490" s="2" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="491" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B491" s="2" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="492" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B492" s="2" t="s">
-        <v>481</v>
-      </c>
-    </row>
-    <row r="493" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B493" s="2" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="494" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B494" s="2" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="495" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B495" s="2" t="s">
-        <v>484</v>
-      </c>
-    </row>
-    <row r="496" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B496" s="2" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="497" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B497" s="2" t="s">
-        <v>486</v>
-      </c>
-    </row>
-    <row r="498" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B498" s="2" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="499" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B499" s="2" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="500" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B500" s="2" t="s">
-        <v>489</v>
-      </c>
-    </row>
-    <row r="501" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B501" s="2" t="s">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="502" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B502" s="2" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="503" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B503" s="2" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="504" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B504" s="2" t="s">
-        <v>493</v>
-      </c>
-    </row>
-    <row r="505" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B505" s="2" t="s">
-        <v>494</v>
-      </c>
-    </row>
-    <row r="506" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B506" s="2" t="s">
-        <v>495</v>
-      </c>
-    </row>
-    <row r="507" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B507" s="2" t="s">
-        <v>496</v>
-      </c>
-    </row>
-    <row r="508" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B508" s="2" t="s">
-        <v>497</v>
-      </c>
-    </row>
-    <row r="509" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B509" s="2" t="s">
-        <v>498</v>
-      </c>
-    </row>
-    <row r="510" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B510" s="2" t="s">
-        <v>499</v>
-      </c>
-    </row>
-    <row r="511" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B511" s="2" t="s">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="512" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B512" s="2" t="s">
-        <v>501</v>
-      </c>
-    </row>
-    <row r="513" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B513" s="2" t="s">
-        <v>502</v>
-      </c>
-    </row>
-    <row r="514" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B514" s="2" t="s">
-        <v>503</v>
-      </c>
-    </row>
-    <row r="515" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B515" s="2" t="s">
-        <v>504</v>
-      </c>
-    </row>
-    <row r="516" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B516" s="2" t="s">
-        <v>505</v>
-      </c>
-    </row>
-    <row r="517" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B517" s="2" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="518" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B518" s="2" t="s">
-        <v>507</v>
-      </c>
-    </row>
-    <row r="519" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B519" s="2" t="s">
-        <v>508</v>
-      </c>
-    </row>
-    <row r="520" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B520" s="2" t="s">
-        <v>509</v>
-      </c>
-    </row>
-    <row r="521" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B521" s="2" t="s">
-        <v>510</v>
-      </c>
-    </row>
-    <row r="522" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B522" s="2" t="s">
-        <v>511</v>
-      </c>
-    </row>
-    <row r="523" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B523" s="2" t="s">
-        <v>512</v>
-      </c>
-    </row>
-    <row r="524" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B524" s="2" t="s">
-        <v>513</v>
-      </c>
-    </row>
-    <row r="525" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B525" s="2" t="s">
-        <v>514</v>
-      </c>
-    </row>
-    <row r="526" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B526" s="2" t="s">
-        <v>515</v>
-      </c>
-    </row>
-    <row r="527" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B527" s="2" t="s">
-        <v>516</v>
-      </c>
-    </row>
-    <row r="528" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B528" s="2" t="s">
-        <v>517</v>
-      </c>
-    </row>
-    <row r="529" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B529" s="2" t="s">
-        <v>518</v>
-      </c>
-    </row>
-    <row r="530" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B530" s="2" t="s">
-        <v>519</v>
-      </c>
-    </row>
-    <row r="531" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B531" s="2" t="s">
-        <v>520</v>
-      </c>
-    </row>
-    <row r="532" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B532" s="2" t="s">
-        <v>521</v>
-      </c>
-    </row>
-    <row r="533" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B533" s="2" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="534" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B534" s="2" t="s">
-        <v>523</v>
-      </c>
-    </row>
-    <row r="535" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B535" s="2" t="s">
-        <v>524</v>
-      </c>
-    </row>
-    <row r="536" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B536" s="2" t="s">
-        <v>525</v>
-      </c>
-    </row>
-    <row r="537" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B537" s="2" t="s">
-        <v>526</v>
-      </c>
-    </row>
-    <row r="538" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B538" s="2" t="s">
-        <v>527</v>
-      </c>
-    </row>
-    <row r="539" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B539" s="2" t="s">
-        <v>528</v>
-      </c>
-    </row>
-    <row r="540" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B540" s="2" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="541" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B541" s="2" t="s">
-        <v>530</v>
-      </c>
-    </row>
-    <row r="542" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B542" s="2" t="s">
-        <v>531</v>
-      </c>
-    </row>
-    <row r="543" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B543" s="2" t="s">
-        <v>532</v>
-      </c>
-    </row>
-    <row r="544" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B544" s="2" t="s">
-        <v>533</v>
       </c>
     </row>
     <row r="545" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B545" s="2" t="s">
-        <v>534</v>
+        <v>458</v>
       </c>
     </row>
     <row r="546" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B546" s="2" t="s">
-        <v>535</v>
+        <v>459</v>
       </c>
     </row>
     <row r="547" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B547" s="2" t="s">
-        <v>536</v>
+        <v>460</v>
       </c>
     </row>
     <row r="548" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B548" s="2" t="s">
-        <v>537</v>
+        <v>461</v>
       </c>
     </row>
     <row r="549" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B549" s="2" t="s">
-        <v>538</v>
+        <v>462</v>
       </c>
     </row>
     <row r="550" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B550" s="2" t="s">
-        <v>539</v>
+        <v>463</v>
       </c>
     </row>
     <row r="551" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B551" s="2" t="s">
-        <v>540</v>
+        <v>464</v>
       </c>
     </row>
     <row r="552" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B552" s="2" t="s">
-        <v>541</v>
+        <v>465</v>
       </c>
     </row>
     <row r="553" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B553" s="2" t="s">
-        <v>542</v>
+        <v>466</v>
       </c>
     </row>
     <row r="554" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B554" s="2" t="s">
-        <v>543</v>
+        <v>467</v>
       </c>
     </row>
     <row r="555" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B555" s="2" t="s">
-        <v>544</v>
+        <v>468</v>
       </c>
     </row>
     <row r="556" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B556" s="2" t="s">
-        <v>545</v>
+        <v>469</v>
       </c>
     </row>
     <row r="557" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B557" s="2" t="s">
-        <v>546</v>
+        <v>470</v>
       </c>
     </row>
     <row r="558" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B558" s="2" t="s">
-        <v>547</v>
+        <v>471</v>
       </c>
     </row>
     <row r="559" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B559" s="2" t="s">
-        <v>548</v>
+        <v>472</v>
       </c>
     </row>
     <row r="560" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B560" s="2" t="s">
-        <v>549</v>
+        <v>473</v>
       </c>
     </row>
     <row r="561" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B561" s="2" t="s">
-        <v>550</v>
+        <v>474</v>
       </c>
     </row>
     <row r="562" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B562" s="2" t="s">
-        <v>551</v>
+        <v>475</v>
       </c>
     </row>
     <row r="563" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B563" s="2" t="s">
-        <v>552</v>
+        <v>476</v>
       </c>
     </row>
     <row r="564" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B564" s="2" t="s">
-        <v>553</v>
+        <v>477</v>
       </c>
     </row>
     <row r="565" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B565" s="2" t="s">
-        <v>554</v>
+        <v>478</v>
       </c>
     </row>
     <row r="566" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B566" s="2" t="s">
-        <v>555</v>
+        <v>479</v>
       </c>
     </row>
     <row r="567" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B567" s="2" t="s">
-        <v>556</v>
+        <v>480</v>
       </c>
     </row>
     <row r="568" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B568" s="2" t="s">
-        <v>557</v>
+        <v>481</v>
       </c>
     </row>
     <row r="569" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B569" s="2" t="s">
-        <v>558</v>
+        <v>482</v>
       </c>
     </row>
     <row r="570" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B570" s="2" t="s">
-        <v>559</v>
+        <v>483</v>
       </c>
     </row>
     <row r="571" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B571" s="2" t="s">
-        <v>560</v>
+        <v>484</v>
       </c>
     </row>
     <row r="572" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B572" s="2" t="s">
-        <v>561</v>
+        <v>485</v>
       </c>
     </row>
     <row r="573" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B573" s="2" t="s">
-        <v>562</v>
+        <v>486</v>
       </c>
     </row>
     <row r="574" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B574" s="2" t="s">
-        <v>563</v>
+        <v>487</v>
       </c>
     </row>
     <row r="575" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B575" s="2" t="s">
-        <v>564</v>
+        <v>488</v>
       </c>
     </row>
     <row r="576" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B576" s="2" t="s">
-        <v>565</v>
+        <v>489</v>
       </c>
     </row>
     <row r="577" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B577" s="2" t="s">
-        <v>566</v>
+        <v>490</v>
       </c>
     </row>
     <row r="578" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B578" s="2" t="s">
-        <v>567</v>
+        <v>491</v>
       </c>
     </row>
     <row r="579" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B579" s="2" t="s">
-        <v>568</v>
+        <v>492</v>
       </c>
     </row>
     <row r="580" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B580" s="2" t="s">
-        <v>569</v>
+        <v>493</v>
       </c>
     </row>
     <row r="581" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B581" s="2" t="s">
-        <v>570</v>
+        <v>494</v>
       </c>
     </row>
     <row r="582" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B582" s="2" t="s">
-        <v>571</v>
+        <v>495</v>
       </c>
     </row>
     <row r="583" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B583" s="2" t="s">
-        <v>572</v>
+        <v>496</v>
       </c>
     </row>
     <row r="584" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B584" s="2" t="s">
-        <v>573</v>
+        <v>497</v>
       </c>
     </row>
     <row r="585" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B585" s="2" t="s">
-        <v>574</v>
+        <v>498</v>
       </c>
     </row>
     <row r="586" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B586" s="2" t="s">
-        <v>575</v>
+        <v>499</v>
       </c>
     </row>
     <row r="587" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B587" s="2" t="s">
-        <v>576</v>
+        <v>500</v>
       </c>
     </row>
     <row r="588" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B588" s="2" t="s">
-        <v>577</v>
+        <v>501</v>
       </c>
     </row>
     <row r="589" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B589" s="2" t="s">
-        <v>578</v>
+        <v>502</v>
       </c>
     </row>
     <row r="590" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B590" s="2" t="s">
-        <v>579</v>
+        <v>503</v>
       </c>
     </row>
     <row r="591" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B591" s="2" t="s">
-        <v>580</v>
+        <v>504</v>
       </c>
     </row>
     <row r="592" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B592" s="2" t="s">
-        <v>581</v>
+        <v>505</v>
       </c>
     </row>
     <row r="593" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B593" s="2" t="s">
-        <v>582</v>
+        <v>506</v>
       </c>
     </row>
     <row r="594" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B594" s="2" t="s">
-        <v>583</v>
+        <v>507</v>
       </c>
     </row>
     <row r="595" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B595" s="2" t="s">
-        <v>584</v>
+        <v>508</v>
       </c>
     </row>
     <row r="596" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B596" s="2" t="s">
-        <v>585</v>
+        <v>509</v>
       </c>
     </row>
     <row r="597" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B597" s="2" t="s">
-        <v>586</v>
+        <v>510</v>
       </c>
     </row>
     <row r="598" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B598" s="2" t="s">
-        <v>587</v>
+        <v>511</v>
       </c>
     </row>
     <row r="599" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B599" s="2" t="s">
-        <v>588</v>
+        <v>512</v>
       </c>
     </row>
     <row r="600" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B600" s="2" t="s">
-        <v>589</v>
+        <v>513</v>
       </c>
     </row>
     <row r="601" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B601" s="2" t="s">
-        <v>590</v>
+        <v>514</v>
       </c>
     </row>
     <row r="602" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B602" s="2" t="s">
-        <v>591</v>
+        <v>515</v>
       </c>
     </row>
     <row r="603" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B603" s="2" t="s">
-        <v>592</v>
+        <v>516</v>
       </c>
     </row>
     <row r="604" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B604" s="2" t="s">
-        <v>593</v>
+        <v>517</v>
       </c>
     </row>
     <row r="605" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B605" s="2" t="s">
-        <v>594</v>
+        <v>518</v>
       </c>
     </row>
     <row r="606" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B606" s="2" t="s">
-        <v>595</v>
+        <v>519</v>
       </c>
     </row>
     <row r="607" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B607" s="2" t="s">
-        <v>596</v>
+        <v>520</v>
       </c>
     </row>
     <row r="608" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B608" s="2" t="s">
-        <v>597</v>
+        <v>521</v>
       </c>
     </row>
     <row r="609" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B609" s="2" t="s">
-        <v>598</v>
+        <v>522</v>
       </c>
     </row>
     <row r="610" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B610" s="2" t="s">
-        <v>599</v>
+        <v>523</v>
       </c>
     </row>
     <row r="611" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B611" s="2" t="s">
-        <v>600</v>
+        <v>524</v>
       </c>
     </row>
     <row r="612" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B612" s="2" t="s">
-        <v>601</v>
+        <v>525</v>
       </c>
     </row>
     <row r="613" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B613" s="2" t="s">
-        <v>602</v>
+        <v>526</v>
       </c>
     </row>
     <row r="614" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B614" s="2" t="s">
-        <v>603</v>
+        <v>527</v>
       </c>
     </row>
     <row r="615" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B615" s="2" t="s">
-        <v>604</v>
+        <v>528</v>
       </c>
     </row>
     <row r="616" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B616" s="2" t="s">
-        <v>605</v>
+        <v>529</v>
       </c>
     </row>
     <row r="617" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B617" s="2" t="s">
-        <v>606</v>
+        <v>530</v>
       </c>
     </row>
     <row r="618" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B618" s="2" t="s">
-        <v>607</v>
+        <v>531</v>
       </c>
     </row>
     <row r="619" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B619" s="2" t="s">
-        <v>608</v>
+        <v>532</v>
       </c>
     </row>
     <row r="620" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B620" s="2" t="s">
-        <v>609</v>
+        <v>533</v>
       </c>
     </row>
     <row r="621" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B621" s="2" t="s">
-        <v>610</v>
+        <v>534</v>
       </c>
     </row>
     <row r="622" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B622" s="2" t="s">
-        <v>611</v>
+        <v>535</v>
       </c>
     </row>
     <row r="623" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B623" s="2" t="s">
-        <v>612</v>
+        <v>536</v>
       </c>
     </row>
     <row r="624" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B624" s="2" t="s">
-        <v>613</v>
+        <v>537</v>
       </c>
     </row>
     <row r="625" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B625" s="2" t="s">
-        <v>614</v>
+        <v>538</v>
       </c>
     </row>
     <row r="626" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B626" s="2" t="s">
-        <v>615</v>
+        <v>539</v>
       </c>
     </row>
     <row r="627" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B627" s="2" t="s">
-        <v>616</v>
+        <v>540</v>
       </c>
     </row>
     <row r="628" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B628" s="2" t="s">
-        <v>617</v>
+        <v>541</v>
       </c>
     </row>
     <row r="629" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B629" s="2" t="s">
-        <v>618</v>
+        <v>542</v>
       </c>
     </row>
     <row r="630" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B630" s="2" t="s">
-        <v>619</v>
+        <v>543</v>
       </c>
     </row>
     <row r="631" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B631" s="2" t="s">
-        <v>620</v>
+        <v>544</v>
       </c>
     </row>
     <row r="632" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B632" s="2" t="s">
-        <v>621</v>
+        <v>545</v>
       </c>
     </row>
     <row r="633" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B633" s="2" t="s">
-        <v>622</v>
+        <v>546</v>
       </c>
     </row>
     <row r="634" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B634" s="2" t="s">
-        <v>623</v>
+        <v>547</v>
       </c>
     </row>
     <row r="635" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B635" s="2" t="s">
-        <v>624</v>
+        <v>548</v>
       </c>
     </row>
     <row r="636" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B636" s="2" t="s">
-        <v>625</v>
+        <v>549</v>
       </c>
     </row>
     <row r="637" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B637" s="2" t="s">
-        <v>626</v>
+        <v>550</v>
       </c>
     </row>
     <row r="638" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B638" s="2" t="s">
-        <v>627</v>
+        <v>551</v>
       </c>
     </row>
     <row r="639" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B639" s="2" t="s">
-        <v>628</v>
+        <v>552</v>
       </c>
     </row>
     <row r="640" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B640" s="2" t="s">
-        <v>629</v>
+        <v>553</v>
       </c>
     </row>
     <row r="641" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B641" s="2" t="s">
-        <v>630</v>
+        <v>554</v>
       </c>
     </row>
     <row r="642" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B642" s="2" t="s">
-        <v>631</v>
+        <v>555</v>
       </c>
     </row>
     <row r="643" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B643" s="2" t="s">
-        <v>632</v>
+        <v>556</v>
       </c>
     </row>
     <row r="644" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B644" s="2" t="s">
-        <v>633</v>
+        <v>557</v>
       </c>
     </row>
     <row r="645" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B645" s="2" t="s">
-        <v>634</v>
+        <v>558</v>
       </c>
     </row>
     <row r="646" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B646" s="2" t="s">
-        <v>635</v>
+        <v>559</v>
       </c>
     </row>
     <row r="647" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B647" s="2" t="s">
-        <v>636</v>
+        <v>560</v>
       </c>
     </row>
     <row r="648" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B648" s="2" t="s">
-        <v>637</v>
+        <v>561</v>
       </c>
     </row>
     <row r="649" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B649" s="2" t="s">
-        <v>638</v>
+        <v>562</v>
       </c>
     </row>
     <row r="650" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B650" s="2" t="s">
-        <v>639</v>
+        <v>563</v>
       </c>
     </row>
     <row r="651" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B651" s="2" t="s">
-        <v>640</v>
+        <v>564</v>
       </c>
     </row>
     <row r="652" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B652" s="2" t="s">
-        <v>641</v>
+        <v>565</v>
       </c>
     </row>
     <row r="653" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B653" s="2" t="s">
-        <v>642</v>
+        <v>566</v>
       </c>
     </row>
     <row r="654" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B654" s="2" t="s">
-        <v>643</v>
+        <v>567</v>
       </c>
     </row>
     <row r="655" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B655" s="2" t="s">
-        <v>644</v>
+        <v>568</v>
       </c>
     </row>
     <row r="656" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B656" s="2" t="s">
-        <v>645</v>
+        <v>569</v>
       </c>
     </row>
     <row r="657" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B657" s="2" t="s">
-        <v>646</v>
+        <v>570</v>
       </c>
     </row>
     <row r="658" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B658" s="2" t="s">
-        <v>647</v>
+        <v>571</v>
       </c>
     </row>
     <row r="659" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B659" s="2" t="s">
-        <v>648</v>
+        <v>572</v>
       </c>
     </row>
     <row r="660" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B660" s="2" t="s">
-        <v>649</v>
+        <v>573</v>
       </c>
     </row>
     <row r="661" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B661" s="2" t="s">
-        <v>650</v>
+        <v>574</v>
       </c>
     </row>
     <row r="662" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B662" s="2" t="s">
-        <v>651</v>
+        <v>575</v>
       </c>
     </row>
     <row r="663" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B663" s="2" t="s">
-        <v>652</v>
+        <v>576</v>
       </c>
     </row>
     <row r="664" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B664" s="2" t="s">
-        <v>653</v>
+        <v>577</v>
       </c>
     </row>
     <row r="665" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B665" s="2" t="s">
-        <v>654</v>
+        <v>578</v>
       </c>
     </row>
     <row r="666" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B666" s="2" t="s">
-        <v>655</v>
+        <v>579</v>
       </c>
     </row>
     <row r="667" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B667" s="2" t="s">
-        <v>656</v>
+        <v>580</v>
       </c>
     </row>
     <row r="668" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B668" s="2" t="s">
-        <v>657</v>
+        <v>581</v>
       </c>
     </row>
     <row r="669" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B669" s="2" t="s">
-        <v>658</v>
+        <v>582</v>
       </c>
     </row>
     <row r="670" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B670" s="2" t="s">
-        <v>659</v>
+        <v>583</v>
       </c>
     </row>
     <row r="671" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B671" s="2" t="s">
-        <v>660</v>
+        <v>584</v>
       </c>
     </row>
     <row r="672" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B672" s="2" t="s">
-        <v>661</v>
+        <v>585</v>
       </c>
     </row>
     <row r="673" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B673" s="2" t="s">
-        <v>662</v>
+        <v>586</v>
       </c>
     </row>
     <row r="674" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B674" s="2" t="s">
-        <v>663</v>
+        <v>587</v>
       </c>
     </row>
     <row r="675" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B675" s="2" t="s">
-        <v>664</v>
+        <v>588</v>
       </c>
     </row>
     <row r="676" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B676" s="2" t="s">
-        <v>665</v>
+        <v>589</v>
       </c>
     </row>
     <row r="677" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B677" s="2" t="s">
-        <v>666</v>
+        <v>590</v>
       </c>
     </row>
     <row r="678" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B678" s="2" t="s">
-        <v>667</v>
+        <v>591</v>
       </c>
     </row>
     <row r="679" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B679" s="2" t="s">
-        <v>668</v>
+        <v>592</v>
       </c>
     </row>
     <row r="680" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B680" s="2" t="s">
-        <v>669</v>
+        <v>593</v>
       </c>
     </row>
     <row r="681" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B681" s="2" t="s">
-        <v>670</v>
+        <v>594</v>
       </c>
     </row>
     <row r="682" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B682" s="2" t="s">
-        <v>671</v>
+        <v>595</v>
       </c>
     </row>
     <row r="683" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B683" s="2" t="s">
-        <v>672</v>
+        <v>596</v>
       </c>
     </row>
     <row r="684" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B684" s="2" t="s">
-        <v>673</v>
+        <v>597</v>
       </c>
     </row>
     <row r="685" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B685" s="2" t="s">
-        <v>674</v>
+        <v>598</v>
       </c>
     </row>
     <row r="686" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B686" s="2" t="s">
-        <v>675</v>
+        <v>599</v>
       </c>
     </row>
     <row r="687" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B687" s="2" t="s">
-        <v>676</v>
+        <v>600</v>
       </c>
     </row>
     <row r="688" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B688" s="2" t="s">
-        <v>677</v>
+        <v>601</v>
       </c>
     </row>
     <row r="689" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B689" s="2" t="s">
-        <v>678</v>
+        <v>602</v>
       </c>
     </row>
     <row r="690" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B690" s="2" t="s">
-        <v>679</v>
+        <v>603</v>
       </c>
     </row>
     <row r="691" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B691" s="2" t="s">
-        <v>680</v>
+        <v>604</v>
       </c>
     </row>
     <row r="692" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B692" s="2" t="s">
-        <v>681</v>
+        <v>605</v>
       </c>
     </row>
     <row r="693" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B693" s="2" t="s">
-        <v>682</v>
+        <v>606</v>
       </c>
     </row>
     <row r="694" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B694" s="2" t="s">
-        <v>683</v>
+        <v>607</v>
       </c>
     </row>
     <row r="695" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B695" s="2" t="s">
-        <v>684</v>
+        <v>608</v>
       </c>
     </row>
     <row r="696" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B696" s="2" t="s">
-        <v>685</v>
+        <v>609</v>
       </c>
     </row>
     <row r="697" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B697" s="2" t="s">
-        <v>686</v>
+        <v>610</v>
       </c>
     </row>
     <row r="698" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B698" s="2" t="s">
-        <v>687</v>
+        <v>611</v>
       </c>
     </row>
     <row r="699" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B699" s="2" t="s">
-        <v>688</v>
+        <v>612</v>
       </c>
     </row>
     <row r="700" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B700" s="2" t="s">
-        <v>689</v>
+        <v>613</v>
       </c>
     </row>
     <row r="701" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B701" s="2" t="s">
-        <v>690</v>
+        <v>614</v>
       </c>
     </row>
     <row r="702" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B702" s="2" t="s">
-        <v>691</v>
+        <v>615</v>
       </c>
     </row>
     <row r="703" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B703" s="2" t="s">
-        <v>692</v>
+        <v>616</v>
       </c>
     </row>
     <row r="704" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B704" s="2" t="s">
-        <v>693</v>
+        <v>617</v>
       </c>
     </row>
     <row r="705" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B705" s="2" t="s">
-        <v>694</v>
+        <v>618</v>
       </c>
     </row>
     <row r="706" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B706" s="2" t="s">
-        <v>695</v>
+        <v>619</v>
       </c>
     </row>
     <row r="707" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B707" s="2" t="s">
-        <v>696</v>
+        <v>620</v>
       </c>
     </row>
     <row r="708" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B708" s="2" t="s">
-        <v>697</v>
+        <v>621</v>
       </c>
     </row>
     <row r="709" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B709" s="2" t="s">
-        <v>698</v>
+        <v>622</v>
       </c>
     </row>
     <row r="710" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B710" s="2" t="s">
-        <v>699</v>
+        <v>623</v>
       </c>
     </row>
     <row r="711" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B711" s="2" t="s">
-        <v>700</v>
+        <v>624</v>
       </c>
     </row>
     <row r="712" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B712" s="2" t="s">
-        <v>701</v>
+        <v>625</v>
       </c>
     </row>
     <row r="713" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B713" s="2" t="s">
-        <v>702</v>
+        <v>626</v>
       </c>
     </row>
     <row r="714" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B714" s="2" t="s">
-        <v>703</v>
+        <v>627</v>
       </c>
     </row>
     <row r="715" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B715" s="2" t="s">
-        <v>704</v>
+        <v>628</v>
       </c>
     </row>
     <row r="716" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B716" s="2" t="s">
-        <v>705</v>
+        <v>629</v>
       </c>
     </row>
     <row r="717" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B717" s="2" t="s">
-        <v>706</v>
+        <v>630</v>
       </c>
     </row>
     <row r="718" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B718" s="2" t="s">
-        <v>707</v>
+        <v>631</v>
       </c>
     </row>
     <row r="719" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B719" s="2" t="s">
-        <v>708</v>
+        <v>632</v>
       </c>
     </row>
     <row r="720" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B720" s="2" t="s">
-        <v>709</v>
+        <v>633</v>
       </c>
     </row>
     <row r="721" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B721" s="2" t="s">
-        <v>710</v>
+        <v>634</v>
       </c>
     </row>
     <row r="722" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B722" s="2" t="s">
-        <v>711</v>
+        <v>635</v>
       </c>
     </row>
     <row r="723" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B723" s="2" t="s">
-        <v>712</v>
+        <v>636</v>
       </c>
     </row>
     <row r="724" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B724" s="2" t="s">
-        <v>713</v>
+        <v>637</v>
       </c>
     </row>
     <row r="725" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B725" s="2" t="s">
-        <v>714</v>
+        <v>638</v>
       </c>
     </row>
     <row r="726" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B726" s="2" t="s">
-        <v>715</v>
+        <v>639</v>
       </c>
     </row>
     <row r="727" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B727" s="2" t="s">
-        <v>716</v>
+        <v>640</v>
       </c>
     </row>
     <row r="728" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B728" s="2" t="s">
-        <v>717</v>
+        <v>641</v>
       </c>
     </row>
     <row r="729" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B729" s="2" t="s">
-        <v>718</v>
+        <v>642</v>
       </c>
     </row>
     <row r="730" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B730" s="2" t="s">
-        <v>719</v>
+        <v>643</v>
       </c>
     </row>
     <row r="731" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B731" s="2" t="s">
-        <v>720</v>
+        <v>644</v>
       </c>
     </row>
     <row r="732" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B732" s="2" t="s">
-        <v>721</v>
+        <v>645</v>
       </c>
     </row>
     <row r="733" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B733" s="2" t="s">
-        <v>722</v>
+        <v>646</v>
       </c>
     </row>
     <row r="734" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B734" s="2" t="s">
-        <v>723</v>
+        <v>647</v>
       </c>
     </row>
     <row r="735" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B735" s="2" t="s">
-        <v>724</v>
+        <v>648</v>
       </c>
     </row>
     <row r="736" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B736" s="2" t="s">
-        <v>725</v>
+        <v>649</v>
       </c>
     </row>
     <row r="737" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B737" s="2" t="s">
-        <v>726</v>
+        <v>650</v>
       </c>
     </row>
     <row r="738" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B738" s="2" t="s">
-        <v>727</v>
+        <v>651</v>
       </c>
     </row>
     <row r="739" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B739" s="2" t="s">
-        <v>728</v>
+        <v>652</v>
       </c>
     </row>
     <row r="740" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B740" s="2" t="s">
-        <v>729</v>
+        <v>653</v>
       </c>
     </row>
     <row r="741" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B741" s="2" t="s">
-        <v>730</v>
+        <v>654</v>
       </c>
     </row>
     <row r="742" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B742" s="2" t="s">
-        <v>731</v>
+        <v>655</v>
       </c>
     </row>
     <row r="743" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B743" s="2" t="s">
-        <v>732</v>
+        <v>656</v>
       </c>
     </row>
     <row r="744" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B744" s="2" t="s">
-        <v>733</v>
+        <v>657</v>
       </c>
     </row>
     <row r="745" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B745" s="2" t="s">
-        <v>734</v>
+        <v>658</v>
       </c>
     </row>
     <row r="746" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B746" s="2" t="s">
-        <v>735</v>
+        <v>659</v>
       </c>
     </row>
     <row r="747" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B747" s="2" t="s">
-        <v>736</v>
+        <v>660</v>
       </c>
     </row>
     <row r="748" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B748" s="2" t="s">
-        <v>737</v>
+        <v>661</v>
       </c>
     </row>
     <row r="749" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B749" s="2" t="s">
-        <v>738</v>
+        <v>662</v>
       </c>
     </row>
     <row r="750" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B750" s="2" t="s">
-        <v>739</v>
+        <v>663</v>
       </c>
     </row>
     <row r="751" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B751" s="2" t="s">
-        <v>740</v>
+        <v>664</v>
       </c>
     </row>
     <row r="752" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B752" s="2" t="s">
-        <v>741</v>
+        <v>665</v>
       </c>
     </row>
     <row r="753" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B753" s="2" t="s">
-        <v>742</v>
+        <v>666</v>
       </c>
     </row>
     <row r="754" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B754" s="2" t="s">
-        <v>743</v>
+        <v>667</v>
       </c>
     </row>
     <row r="755" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B755" s="2" t="s">
-        <v>744</v>
+        <v>668</v>
       </c>
     </row>
     <row r="756" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B756" s="2" t="s">
-        <v>745</v>
+        <v>669</v>
       </c>
     </row>
     <row r="757" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B757" s="2" t="s">
-        <v>746</v>
+        <v>670</v>
       </c>
     </row>
     <row r="758" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B758" s="2" t="s">
-        <v>747</v>
+        <v>671</v>
       </c>
     </row>
     <row r="759" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B759" s="2" t="s">
-        <v>748</v>
+        <v>672</v>
       </c>
     </row>
     <row r="760" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B760" s="2" t="s">
-        <v>749</v>
+        <v>673</v>
       </c>
     </row>
     <row r="761" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B761" s="2" t="s">
-        <v>750</v>
+        <v>674</v>
       </c>
     </row>
     <row r="762" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B762" s="2" t="s">
-        <v>751</v>
+        <v>675</v>
       </c>
     </row>
     <row r="763" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B763" s="2" t="s">
-        <v>752</v>
+        <v>676</v>
       </c>
     </row>
     <row r="764" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B764" s="2" t="s">
-        <v>753</v>
+        <v>677</v>
       </c>
     </row>
     <row r="765" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B765" s="2" t="s">
-        <v>754</v>
+        <v>678</v>
       </c>
     </row>
     <row r="766" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B766" s="2" t="s">
-        <v>755</v>
+        <v>679</v>
       </c>
     </row>
     <row r="767" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B767" s="2" t="s">
-        <v>756</v>
+        <v>680</v>
       </c>
     </row>
     <row r="768" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B768" s="2" t="s">
-        <v>757</v>
+        <v>681</v>
       </c>
     </row>
     <row r="769" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B769" s="2" t="s">
-        <v>758</v>
+        <v>682</v>
       </c>
     </row>
     <row r="770" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B770" s="2" t="s">
-        <v>759</v>
+        <v>683</v>
       </c>
     </row>
     <row r="771" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B771" s="2" t="s">
-        <v>760</v>
+        <v>684</v>
       </c>
     </row>
     <row r="772" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B772" s="2" t="s">
-        <v>761</v>
+        <v>685</v>
       </c>
     </row>
     <row r="773" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B773" s="2" t="s">
-        <v>762</v>
+        <v>686</v>
       </c>
     </row>
     <row r="774" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B774" s="2" t="s">
-        <v>763</v>
+        <v>687</v>
       </c>
     </row>
     <row r="775" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B775" s="2" t="s">
-        <v>764</v>
+        <v>688</v>
       </c>
     </row>
     <row r="776" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B776" s="2" t="s">
-        <v>765</v>
+        <v>689</v>
       </c>
     </row>
     <row r="777" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B777" s="2" t="s">
-        <v>766</v>
+        <v>690</v>
       </c>
     </row>
     <row r="778" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B778" s="2" t="s">
-        <v>767</v>
+        <v>691</v>
       </c>
     </row>
     <row r="779" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B779" s="2" t="s">
-        <v>768</v>
+        <v>692</v>
       </c>
     </row>
     <row r="780" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B780" s="2" t="s">
-        <v>769</v>
+        <v>693</v>
       </c>
     </row>
     <row r="781" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B781" s="2" t="s">
-        <v>770</v>
+        <v>694</v>
       </c>
     </row>
     <row r="782" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B782" s="2" t="s">
-        <v>771</v>
+        <v>695</v>
       </c>
     </row>
     <row r="783" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B783" s="2" t="s">
-        <v>772</v>
+        <v>696</v>
       </c>
     </row>
     <row r="784" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B784" s="2" t="s">
-        <v>773</v>
+        <v>697</v>
       </c>
     </row>
     <row r="785" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B785" s="2" t="s">
-        <v>774</v>
+        <v>698</v>
       </c>
     </row>
     <row r="786" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B786" s="2" t="s">
-        <v>775</v>
+        <v>699</v>
       </c>
     </row>
     <row r="787" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B787" s="2" t="s">
-        <v>776</v>
+        <v>700</v>
       </c>
     </row>
     <row r="788" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B788" s="2" t="s">
-        <v>777</v>
+        <v>701</v>
       </c>
     </row>
     <row r="789" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B789" s="2" t="s">
-        <v>778</v>
+        <v>702</v>
       </c>
     </row>
     <row r="790" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B790" s="2" t="s">
-        <v>779</v>
+        <v>703</v>
       </c>
     </row>
     <row r="791" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B791" s="2" t="s">
-        <v>780</v>
+        <v>704</v>
       </c>
     </row>
     <row r="792" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B792" s="2" t="s">
-        <v>781</v>
+        <v>705</v>
       </c>
     </row>
     <row r="793" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B793" s="2" t="s">
-        <v>782</v>
+        <v>706</v>
       </c>
     </row>
     <row r="794" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B794" s="2" t="s">
-        <v>783</v>
+        <v>707</v>
       </c>
     </row>
     <row r="795" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B795" s="2" t="s">
-        <v>784</v>
+        <v>708</v>
       </c>
     </row>
     <row r="796" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B796" s="2" t="s">
-        <v>785</v>
+        <v>709</v>
       </c>
     </row>
     <row r="797" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B797" s="2" t="s">
-        <v>786</v>
+        <v>710</v>
       </c>
     </row>
     <row r="798" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B798" s="2" t="s">
-        <v>787</v>
+        <v>711</v>
       </c>
     </row>
     <row r="799" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B799" s="2" t="s">
-        <v>788</v>
+        <v>712</v>
       </c>
     </row>
     <row r="800" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B800" s="2" t="s">
-        <v>789</v>
+        <v>713</v>
       </c>
     </row>
     <row r="801" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B801" s="2" t="s">
-        <v>790</v>
+        <v>714</v>
       </c>
     </row>
     <row r="802" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B802" s="2" t="s">
-        <v>791</v>
+        <v>715</v>
       </c>
     </row>
     <row r="803" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B803" s="2" t="s">
-        <v>792</v>
+        <v>716</v>
       </c>
     </row>
     <row r="804" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B804" s="2" t="s">
-        <v>793</v>
+        <v>717</v>
       </c>
     </row>
     <row r="805" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B805" s="2" t="s">
-        <v>794</v>
+        <v>718</v>
       </c>
     </row>
     <row r="806" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B806" s="2" t="s">
-        <v>795</v>
+        <v>719</v>
       </c>
     </row>
     <row r="807" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B807" s="2" t="s">
-        <v>796</v>
+        <v>720</v>
       </c>
     </row>
     <row r="808" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B808" s="2" t="s">
-        <v>797</v>
+        <v>721</v>
       </c>
     </row>
     <row r="809" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B809" s="2" t="s">
-        <v>798</v>
+        <v>722</v>
       </c>
     </row>
     <row r="810" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B810" s="2" t="s">
-        <v>799</v>
+        <v>723</v>
       </c>
     </row>
     <row r="811" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B811" s="2" t="s">
-        <v>800</v>
+        <v>724</v>
       </c>
     </row>
     <row r="812" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B812" s="2" t="s">
-        <v>801</v>
+        <v>725</v>
       </c>
     </row>
     <row r="813" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B813" s="2" t="s">
-        <v>802</v>
+        <v>726</v>
       </c>
     </row>
     <row r="814" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B814" s="2" t="s">
-        <v>803</v>
+        <v>727</v>
       </c>
     </row>
     <row r="815" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B815" s="2" t="s">
-        <v>804</v>
+        <v>728</v>
       </c>
     </row>
     <row r="816" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B816" s="2" t="s">
-        <v>805</v>
+        <v>729</v>
       </c>
     </row>
     <row r="817" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B817" s="2" t="s">
-        <v>806</v>
+        <v>730</v>
       </c>
     </row>
     <row r="818" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B818" s="2" t="s">
-        <v>807</v>
+        <v>731</v>
       </c>
     </row>
     <row r="819" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B819" s="2" t="s">
-        <v>808</v>
+        <v>732</v>
       </c>
     </row>
     <row r="820" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B820" s="2" t="s">
-        <v>809</v>
+        <v>733</v>
       </c>
     </row>
     <row r="821" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B821" s="2" t="s">
-        <v>810</v>
+        <v>734</v>
       </c>
     </row>
     <row r="822" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B822" s="2" t="s">
-        <v>811</v>
+        <v>735</v>
       </c>
     </row>
     <row r="823" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B823" s="2" t="s">
-        <v>812</v>
+        <v>736</v>
       </c>
     </row>
     <row r="824" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B824" s="2" t="s">
-        <v>813</v>
+        <v>737</v>
       </c>
     </row>
     <row r="825" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B825" s="2" t="s">
-        <v>814</v>
+        <v>738</v>
       </c>
     </row>
     <row r="826" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B826" s="2" t="s">
-        <v>815</v>
+        <v>739</v>
       </c>
     </row>
     <row r="827" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B827" s="2" t="s">
-        <v>816</v>
+        <v>740</v>
       </c>
     </row>
     <row r="828" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B828" s="2" t="s">
-        <v>817</v>
+        <v>741</v>
       </c>
     </row>
     <row r="829" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B829" s="2" t="s">
-        <v>818</v>
+        <v>742</v>
       </c>
     </row>
     <row r="830" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B830" s="2" t="s">
-        <v>819</v>
+        <v>743</v>
       </c>
     </row>
     <row r="831" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B831" s="2" t="s">
-        <v>820</v>
+        <v>744</v>
       </c>
     </row>
     <row r="832" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B832" s="2" t="s">
-        <v>821</v>
+        <v>745</v>
       </c>
     </row>
     <row r="833" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B833" s="2" t="s">
-        <v>822</v>
+        <v>746</v>
       </c>
     </row>
     <row r="834" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B834" s="2" t="s">
-        <v>823</v>
+        <v>747</v>
       </c>
     </row>
     <row r="835" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B835" s="2" t="s">
-        <v>824</v>
+        <v>748</v>
       </c>
     </row>
     <row r="836" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B836" s="2" t="s">
-        <v>825</v>
+        <v>749</v>
       </c>
     </row>
     <row r="837" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B837" s="2" t="s">
-        <v>826</v>
+        <v>750</v>
       </c>
     </row>
     <row r="838" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B838" s="2" t="s">
-        <v>827</v>
+        <v>751</v>
       </c>
     </row>
     <row r="839" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B839" s="2" t="s">
-        <v>828</v>
+        <v>752</v>
       </c>
     </row>
     <row r="840" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B840" s="2" t="s">
-        <v>829</v>
+        <v>753</v>
       </c>
     </row>
     <row r="841" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B841" s="2" t="s">
-        <v>830</v>
+        <v>754</v>
       </c>
     </row>
     <row r="842" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B842" s="2" t="s">
-        <v>831</v>
+        <v>755</v>
       </c>
     </row>
     <row r="843" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B843" s="2" t="s">
-        <v>832</v>
+        <v>756</v>
       </c>
     </row>
     <row r="844" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B844" s="2" t="s">
-        <v>833</v>
+        <v>757</v>
       </c>
     </row>
     <row r="845" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B845" s="2" t="s">
-        <v>834</v>
+        <v>758</v>
       </c>
     </row>
     <row r="846" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B846" s="2" t="s">
-        <v>835</v>
+        <v>759</v>
       </c>
     </row>
     <row r="847" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B847" s="2" t="s">
-        <v>836</v>
+        <v>760</v>
       </c>
     </row>
     <row r="848" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B848" s="2" t="s">
-        <v>837</v>
+        <v>761</v>
       </c>
     </row>
     <row r="849" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B849" s="2" t="s">
-        <v>838</v>
+        <v>762</v>
       </c>
     </row>
     <row r="850" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B850" s="2" t="s">
-        <v>839</v>
+        <v>763</v>
       </c>
     </row>
     <row r="851" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B851" s="2" t="s">
-        <v>840</v>
+        <v>764</v>
       </c>
     </row>
     <row r="852" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B852" s="2" t="s">
-        <v>841</v>
+        <v>765</v>
       </c>
     </row>
     <row r="853" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B853" s="2" t="s">
-        <v>842</v>
+        <v>766</v>
       </c>
     </row>
     <row r="854" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B854" s="2" t="s">
-        <v>843</v>
+        <v>767</v>
       </c>
     </row>
     <row r="855" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B855" s="2" t="s">
-        <v>844</v>
+        <v>768</v>
       </c>
     </row>
     <row r="856" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B856" s="2" t="s">
-        <v>845</v>
+        <v>769</v>
       </c>
     </row>
     <row r="857" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B857" s="2" t="s">
-        <v>846</v>
+        <v>770</v>
       </c>
     </row>
     <row r="858" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B858" s="2" t="s">
-        <v>847</v>
+        <v>771</v>
       </c>
     </row>
     <row r="859" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B859" s="2" t="s">
-        <v>848</v>
+        <v>772</v>
       </c>
     </row>
     <row r="860" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B860" s="2" t="s">
-        <v>849</v>
+        <v>773</v>
       </c>
     </row>
     <row r="861" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B861" s="2" t="s">
-        <v>850</v>
+        <v>774</v>
       </c>
     </row>
     <row r="862" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B862" s="2" t="s">
-        <v>851</v>
+        <v>775</v>
       </c>
     </row>
     <row r="863" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B863" s="2" t="s">
-        <v>852</v>
+        <v>776</v>
       </c>
     </row>
     <row r="864" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B864" s="2" t="s">
-        <v>853</v>
+        <v>777</v>
       </c>
     </row>
     <row r="865" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B865" s="2" t="s">
-        <v>854</v>
+        <v>778</v>
       </c>
     </row>
     <row r="866" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B866" s="2" t="s">
-        <v>855</v>
+        <v>779</v>
       </c>
     </row>
     <row r="867" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B867" s="2" t="s">
-        <v>856</v>
+        <v>780</v>
       </c>
     </row>
     <row r="868" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B868" s="2" t="s">
-        <v>857</v>
+        <v>781</v>
       </c>
     </row>
     <row r="869" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B869" s="2" t="s">
-        <v>858</v>
+        <v>782</v>
       </c>
     </row>
     <row r="870" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B870" s="2" t="s">
-        <v>859</v>
+        <v>783</v>
       </c>
     </row>
     <row r="871" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B871" s="2" t="s">
-        <v>860</v>
+        <v>784</v>
       </c>
     </row>
     <row r="872" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B872" s="2" t="s">
-        <v>861</v>
+        <v>785</v>
       </c>
     </row>
     <row r="873" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B873" s="2" t="s">
-        <v>862</v>
+        <v>786</v>
       </c>
     </row>
     <row r="874" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B874" s="2" t="s">
-        <v>863</v>
+        <v>787</v>
       </c>
     </row>
     <row r="875" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B875" s="2" t="s">
-        <v>864</v>
+        <v>788</v>
       </c>
     </row>
     <row r="876" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B876" s="2" t="s">
-        <v>865</v>
+        <v>789</v>
       </c>
     </row>
     <row r="877" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B877" s="2" t="s">
-        <v>866</v>
+        <v>790</v>
       </c>
     </row>
     <row r="878" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B878" s="2" t="s">
-        <v>867</v>
+        <v>791</v>
       </c>
     </row>
     <row r="879" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B879" s="2" t="s">
-        <v>868</v>
+        <v>792</v>
       </c>
     </row>
     <row r="880" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B880" s="2" t="s">
-        <v>869</v>
+        <v>793</v>
       </c>
     </row>
     <row r="881" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B881" s="2" t="s">
-        <v>870</v>
+        <v>794</v>
       </c>
     </row>
     <row r="882" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B882" s="2" t="s">
-        <v>871</v>
+        <v>795</v>
       </c>
     </row>
     <row r="883" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B883" s="2" t="s">
-        <v>872</v>
+        <v>796</v>
       </c>
     </row>
     <row r="884" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B884" s="2" t="s">
-        <v>873</v>
+        <v>797</v>
       </c>
     </row>
     <row r="885" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B885" s="2" t="s">
-        <v>874</v>
+        <v>798</v>
       </c>
     </row>
     <row r="886" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B886" s="2" t="s">
-        <v>875</v>
+        <v>799</v>
       </c>
     </row>
     <row r="887" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B887" s="2" t="s">
-        <v>876</v>
+        <v>800</v>
       </c>
     </row>
     <row r="888" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B888" s="2" t="s">
-        <v>877</v>
+        <v>801</v>
       </c>
     </row>
     <row r="889" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B889" s="2" t="s">
-        <v>878</v>
+        <v>802</v>
       </c>
     </row>
     <row r="890" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B890" s="2" t="s">
-        <v>879</v>
+        <v>803</v>
       </c>
     </row>
     <row r="891" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B891" s="2" t="s">
-        <v>880</v>
+        <v>804</v>
       </c>
     </row>
     <row r="892" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B892" s="2" t="s">
-        <v>881</v>
+        <v>805</v>
       </c>
     </row>
     <row r="893" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B893" s="2" t="s">
-        <v>882</v>
+        <v>806</v>
       </c>
     </row>
     <row r="894" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B894" s="2" t="s">
-        <v>883</v>
+        <v>807</v>
       </c>
     </row>
     <row r="895" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B895" s="2" t="s">
-        <v>884</v>
+        <v>808</v>
       </c>
     </row>
     <row r="896" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B896" s="2" t="s">
-        <v>885</v>
+        <v>809</v>
       </c>
     </row>
     <row r="897" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B897" s="2" t="s">
-        <v>886</v>
+        <v>810</v>
       </c>
     </row>
     <row r="898" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B898" s="2" t="s">
-        <v>887</v>
+        <v>811</v>
       </c>
     </row>
     <row r="899" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B899" s="2" t="s">
-        <v>888</v>
+        <v>812</v>
       </c>
     </row>
     <row r="900" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B900" s="2" t="s">
-        <v>889</v>
+        <v>813</v>
       </c>
     </row>
     <row r="901" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B901" s="2" t="s">
-        <v>890</v>
+        <v>814</v>
       </c>
     </row>
     <row r="902" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B902" s="2" t="s">
-        <v>891</v>
+        <v>815</v>
       </c>
     </row>
     <row r="903" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B903" s="2" t="s">
-        <v>892</v>
+        <v>816</v>
       </c>
     </row>
     <row r="904" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B904" s="2" t="s">
-        <v>893</v>
+        <v>817</v>
       </c>
     </row>
     <row r="905" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B905" s="2" t="s">
-        <v>894</v>
+        <v>818</v>
       </c>
     </row>
     <row r="906" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B906" s="2" t="s">
-        <v>895</v>
+        <v>819</v>
       </c>
     </row>
     <row r="907" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B907" s="2" t="s">
-        <v>896</v>
+        <v>820</v>
       </c>
     </row>
     <row r="908" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B908" s="2" t="s">
-        <v>897</v>
+        <v>821</v>
       </c>
     </row>
     <row r="909" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B909" s="2" t="s">
-        <v>898</v>
+        <v>822</v>
       </c>
     </row>
     <row r="910" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B910" s="2" t="s">
-        <v>899</v>
+        <v>823</v>
       </c>
     </row>
     <row r="911" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B911" s="2" t="s">
-        <v>900</v>
+        <v>824</v>
       </c>
     </row>
     <row r="912" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B912" s="2" t="s">
-        <v>901</v>
+        <v>825</v>
       </c>
     </row>
     <row r="913" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B913" s="2" t="s">
-        <v>902</v>
+        <v>826</v>
       </c>
     </row>
     <row r="914" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B914" s="2" t="s">
-        <v>903</v>
+        <v>827</v>
       </c>
     </row>
     <row r="915" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B915" s="2" t="s">
-        <v>904</v>
+        <v>828</v>
       </c>
     </row>
     <row r="916" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B916" s="2" t="s">
-        <v>905</v>
+        <v>829</v>
       </c>
     </row>
     <row r="917" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B917" s="2" t="s">
-        <v>906</v>
+        <v>830</v>
       </c>
     </row>
     <row r="918" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B918" s="2" t="s">
-        <v>919</v>
+        <v>831</v>
       </c>
     </row>
     <row r="919" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B919" s="2" t="s">
-        <v>920</v>
+        <v>832</v>
       </c>
     </row>
     <row r="920" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B920" s="2" t="s">
-        <v>921</v>
+        <v>845</v>
       </c>
     </row>
     <row r="921" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B921" s="2" t="s">
-        <v>918</v>
+        <v>846</v>
+      </c>
+    </row>
+    <row r="922" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B922" s="2" t="s">
+        <v>847</v>
+      </c>
+    </row>
+    <row r="923" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B923" s="2" t="s">
+        <v>844</v>
       </c>
     </row>
   </sheetData>
@@ -7790,50 +8701,50 @@
   <sheetData>
     <row r="2" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
-        <v>907</v>
+        <v>833</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>908</v>
+        <v>834</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>909</v>
+        <v>835</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
-        <v>912</v>
+        <v>838</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>910</v>
+        <v>836</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
-        <v>913</v>
+        <v>839</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>911</v>
+        <v>837</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
-        <v>915</v>
+        <v>841</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>914</v>
+        <v>840</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
-        <v>925</v>
+        <v>851</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>924</v>
+        <v>850</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B7" s="1" t="s">
-        <v>926</v>
+        <v>852</v>
       </c>
     </row>
   </sheetData>
